--- a/xlsx/法国_intext.xlsx
+++ b/xlsx/法国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4705">
   <si>
     <t>法国</t>
   </si>
@@ -29,7 +29,7 @@
     <t>法語</t>
   </si>
   <si>
-    <t>政策_政策_美國_法国</t>
+    <t>体育运动_体育运动_竞争_法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -6884,12 +6884,6 @@
     <t>亨利·马蒂斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E5%88%97%C2%B7%E5%BE%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>安德列·德兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E5%BC%97%E6%8B%89%E8%8A%92%E5%85%8B</t>
   </si>
   <si>
@@ -11840,336 +11834,372 @@
     <t>克利珀頓島</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
@@ -13992,12 +14022,6 @@
   </si>
   <si>
     <t>盧森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -14454,7 +14478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14682,7 +14706,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -31154,7 +31178,7 @@
         <v>1092</v>
       </c>
       <c r="G576" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -31415,7 +31439,7 @@
         <v>1108</v>
       </c>
       <c r="G585" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -49795,10 +49819,10 @@
         <v>1218</v>
       </c>
       <c r="E1219" t="s">
-        <v>2305</v>
+        <v>1629</v>
       </c>
       <c r="F1219" t="s">
-        <v>2306</v>
+        <v>1630</v>
       </c>
       <c r="G1219" t="n">
         <v>1</v>
@@ -49824,10 +49848,10 @@
         <v>1219</v>
       </c>
       <c r="E1220" t="s">
-        <v>1629</v>
+        <v>2305</v>
       </c>
       <c r="F1220" t="s">
-        <v>1630</v>
+        <v>2306</v>
       </c>
       <c r="G1220" t="n">
         <v>1</v>
@@ -50178,7 +50202,7 @@
         <v>2330</v>
       </c>
       <c r="G1232" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H1232" t="s">
         <v>4</v>
@@ -50207,7 +50231,7 @@
         <v>2332</v>
       </c>
       <c r="G1233" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1233" t="s">
         <v>4</v>
@@ -50555,7 +50579,7 @@
         <v>2356</v>
       </c>
       <c r="G1245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1245" t="s">
         <v>4</v>
@@ -50584,7 +50608,7 @@
         <v>2358</v>
       </c>
       <c r="G1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1246" t="s">
         <v>4</v>
@@ -50752,13 +50776,13 @@
         <v>1251</v>
       </c>
       <c r="E1252" t="s">
-        <v>2369</v>
+        <v>637</v>
       </c>
       <c r="F1252" t="s">
-        <v>2370</v>
+        <v>638</v>
       </c>
       <c r="G1252" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1252" t="s">
         <v>4</v>
@@ -50781,13 +50805,13 @@
         <v>1252</v>
       </c>
       <c r="E1253" t="s">
-        <v>637</v>
+        <v>2369</v>
       </c>
       <c r="F1253" t="s">
-        <v>638</v>
+        <v>2370</v>
       </c>
       <c r="G1253" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1253" t="s">
         <v>4</v>
@@ -50897,13 +50921,13 @@
         <v>1256</v>
       </c>
       <c r="E1257" t="s">
-        <v>2377</v>
+        <v>645</v>
       </c>
       <c r="F1257" t="s">
-        <v>2378</v>
+        <v>646</v>
       </c>
       <c r="G1257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -50926,13 +50950,13 @@
         <v>1257</v>
       </c>
       <c r="E1258" t="s">
-        <v>645</v>
+        <v>2377</v>
       </c>
       <c r="F1258" t="s">
-        <v>646</v>
+        <v>2378</v>
       </c>
       <c r="G1258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -50961,7 +50985,7 @@
         <v>2380</v>
       </c>
       <c r="G1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -51193,7 +51217,7 @@
         <v>2396</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1267" t="s">
         <v>4</v>
@@ -51222,7 +51246,7 @@
         <v>2398</v>
       </c>
       <c r="G1268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -51251,7 +51275,7 @@
         <v>2400</v>
       </c>
       <c r="G1269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1269" t="s">
         <v>4</v>
@@ -51454,7 +51478,7 @@
         <v>2414</v>
       </c>
       <c r="G1276" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1276" t="s">
         <v>4</v>
@@ -51483,7 +51507,7 @@
         <v>2416</v>
       </c>
       <c r="G1277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1277" t="s">
         <v>4</v>
@@ -51715,7 +51739,7 @@
         <v>2432</v>
       </c>
       <c r="G1285" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1285" t="s">
         <v>4</v>
@@ -51744,7 +51768,7 @@
         <v>2434</v>
       </c>
       <c r="G1286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -51773,7 +51797,7 @@
         <v>2436</v>
       </c>
       <c r="G1287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1287" t="s">
         <v>4</v>
@@ -51802,7 +51826,7 @@
         <v>2438</v>
       </c>
       <c r="G1288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -51831,7 +51855,7 @@
         <v>2440</v>
       </c>
       <c r="G1289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1289" t="s">
         <v>4</v>
@@ -51860,7 +51884,7 @@
         <v>2442</v>
       </c>
       <c r="G1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1290" t="s">
         <v>4</v>
@@ -52063,7 +52087,7 @@
         <v>2456</v>
       </c>
       <c r="G1297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1297" t="s">
         <v>4</v>
@@ -52092,7 +52116,7 @@
         <v>2458</v>
       </c>
       <c r="G1298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1298" t="s">
         <v>4</v>
@@ -52121,7 +52145,7 @@
         <v>2460</v>
       </c>
       <c r="G1299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1299" t="s">
         <v>4</v>
@@ -52179,7 +52203,7 @@
         <v>2464</v>
       </c>
       <c r="G1301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1301" t="s">
         <v>4</v>
@@ -52440,7 +52464,7 @@
         <v>2482</v>
       </c>
       <c r="G1310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1310" t="s">
         <v>4</v>
@@ -52579,13 +52603,13 @@
         <v>1314</v>
       </c>
       <c r="E1315" t="s">
-        <v>2491</v>
+        <v>1817</v>
       </c>
       <c r="F1315" t="s">
-        <v>2492</v>
+        <v>1818</v>
       </c>
       <c r="G1315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1315" t="s">
         <v>4</v>
@@ -52608,13 +52632,13 @@
         <v>1315</v>
       </c>
       <c r="E1316" t="s">
-        <v>1817</v>
+        <v>2491</v>
       </c>
       <c r="F1316" t="s">
-        <v>1818</v>
+        <v>2492</v>
       </c>
       <c r="G1316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1316" t="s">
         <v>4</v>
@@ -53774,7 +53798,7 @@
         <v>2572</v>
       </c>
       <c r="G1356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1356" t="s">
         <v>4</v>
@@ -53803,7 +53827,7 @@
         <v>2574</v>
       </c>
       <c r="G1357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1357" t="s">
         <v>4</v>
@@ -53948,7 +53972,7 @@
         <v>2584</v>
       </c>
       <c r="G1362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1362" t="s">
         <v>4</v>
@@ -53977,7 +54001,7 @@
         <v>2586</v>
       </c>
       <c r="G1363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1363" t="s">
         <v>4</v>
@@ -54435,10 +54459,10 @@
         <v>1378</v>
       </c>
       <c r="E1379" t="s">
-        <v>2617</v>
+        <v>387</v>
       </c>
       <c r="F1379" t="s">
-        <v>2618</v>
+        <v>388</v>
       </c>
       <c r="G1379" t="n">
         <v>1</v>
@@ -54464,10 +54488,10 @@
         <v>1379</v>
       </c>
       <c r="E1380" t="s">
-        <v>387</v>
+        <v>2617</v>
       </c>
       <c r="F1380" t="s">
-        <v>388</v>
+        <v>2618</v>
       </c>
       <c r="G1380" t="n">
         <v>1</v>
@@ -54557,7 +54581,7 @@
         <v>2624</v>
       </c>
       <c r="G1383" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1383" t="s">
         <v>4</v>
@@ -54586,7 +54610,7 @@
         <v>2626</v>
       </c>
       <c r="G1384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1384" t="s">
         <v>4</v>
@@ -54702,7 +54726,7 @@
         <v>2634</v>
       </c>
       <c r="G1388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1388" t="s">
         <v>4</v>
@@ -54731,7 +54755,7 @@
         <v>2636</v>
       </c>
       <c r="G1389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1389" t="s">
         <v>4</v>
@@ -54870,13 +54894,13 @@
         <v>1393</v>
       </c>
       <c r="E1394" t="s">
-        <v>2645</v>
+        <v>2629</v>
       </c>
       <c r="F1394" t="s">
-        <v>2646</v>
+        <v>2630</v>
       </c>
       <c r="G1394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1394" t="s">
         <v>4</v>
@@ -54899,13 +54923,13 @@
         <v>1394</v>
       </c>
       <c r="E1395" t="s">
-        <v>2631</v>
+        <v>2645</v>
       </c>
       <c r="F1395" t="s">
-        <v>2632</v>
+        <v>2646</v>
       </c>
       <c r="G1395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1395" t="s">
         <v>4</v>
@@ -55398,7 +55422,7 @@
         <v>2680</v>
       </c>
       <c r="G1412" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1412" t="s">
         <v>4</v>
@@ -55427,7 +55451,7 @@
         <v>2682</v>
       </c>
       <c r="G1413" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1413" t="s">
         <v>4</v>
@@ -55456,7 +55480,7 @@
         <v>2684</v>
       </c>
       <c r="G1414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1414" t="s">
         <v>4</v>
@@ -57138,7 +57162,7 @@
         <v>2800</v>
       </c>
       <c r="G1472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1472" t="s">
         <v>4</v>
@@ -57167,7 +57191,7 @@
         <v>2802</v>
       </c>
       <c r="G1473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1473" t="s">
         <v>4</v>
@@ -57196,7 +57220,7 @@
         <v>2804</v>
       </c>
       <c r="G1474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
@@ -57225,7 +57249,7 @@
         <v>2806</v>
       </c>
       <c r="G1475" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1475" t="s">
         <v>4</v>
@@ -57254,7 +57278,7 @@
         <v>2808</v>
       </c>
       <c r="G1476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1476" t="s">
         <v>4</v>
@@ -57283,7 +57307,7 @@
         <v>2810</v>
       </c>
       <c r="G1477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1477" t="s">
         <v>4</v>
@@ -57399,7 +57423,7 @@
         <v>2818</v>
       </c>
       <c r="G1481" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1481" t="s">
         <v>4</v>
@@ -57428,7 +57452,7 @@
         <v>2820</v>
       </c>
       <c r="G1482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1482" t="s">
         <v>4</v>
@@ -57457,7 +57481,7 @@
         <v>2822</v>
       </c>
       <c r="G1483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1483" t="s">
         <v>4</v>
@@ -57486,7 +57510,7 @@
         <v>2824</v>
       </c>
       <c r="G1484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1484" t="s">
         <v>4</v>
@@ -57515,7 +57539,7 @@
         <v>2826</v>
       </c>
       <c r="G1485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1485" t="s">
         <v>4</v>
@@ -57718,7 +57742,7 @@
         <v>2840</v>
       </c>
       <c r="G1492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1492" t="s">
         <v>4</v>
@@ -57747,7 +57771,7 @@
         <v>2842</v>
       </c>
       <c r="G1493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1493" t="s">
         <v>4</v>
@@ -58356,7 +58380,7 @@
         <v>2884</v>
       </c>
       <c r="G1514" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1514" t="s">
         <v>4</v>
@@ -58385,7 +58409,7 @@
         <v>2886</v>
       </c>
       <c r="G1515" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1515" t="s">
         <v>4</v>
@@ -58414,7 +58438,7 @@
         <v>2888</v>
       </c>
       <c r="G1516" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1516" t="s">
         <v>4</v>
@@ -58443,7 +58467,7 @@
         <v>2890</v>
       </c>
       <c r="G1517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1517" t="s">
         <v>4</v>
@@ -58472,7 +58496,7 @@
         <v>2892</v>
       </c>
       <c r="G1518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1518" t="s">
         <v>4</v>
@@ -58501,7 +58525,7 @@
         <v>2894</v>
       </c>
       <c r="G1519" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H1519" t="s">
         <v>4</v>
@@ -58530,7 +58554,7 @@
         <v>2896</v>
       </c>
       <c r="G1520" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H1520" t="s">
         <v>4</v>
@@ -58559,7 +58583,7 @@
         <v>2898</v>
       </c>
       <c r="G1521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1521" t="s">
         <v>4</v>
@@ -58617,7 +58641,7 @@
         <v>2902</v>
       </c>
       <c r="G1523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1523" t="s">
         <v>4</v>
@@ -58646,7 +58670,7 @@
         <v>2904</v>
       </c>
       <c r="G1524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1524" t="s">
         <v>4</v>
@@ -58849,7 +58873,7 @@
         <v>2918</v>
       </c>
       <c r="G1531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1531" t="s">
         <v>4</v>
@@ -58907,7 +58931,7 @@
         <v>2922</v>
       </c>
       <c r="G1533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1533" t="s">
         <v>4</v>
@@ -59081,7 +59105,7 @@
         <v>2934</v>
       </c>
       <c r="G1539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1539" t="s">
         <v>4</v>
@@ -59110,7 +59134,7 @@
         <v>2936</v>
       </c>
       <c r="G1540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1540" t="s">
         <v>4</v>
@@ -59313,7 +59337,7 @@
         <v>2950</v>
       </c>
       <c r="G1547" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1547" t="s">
         <v>4</v>
@@ -59342,7 +59366,7 @@
         <v>2952</v>
       </c>
       <c r="G1548" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1548" t="s">
         <v>4</v>
@@ -60589,7 +60613,7 @@
         <v>3038</v>
       </c>
       <c r="G1591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1591" t="s">
         <v>4</v>
@@ -60618,7 +60642,7 @@
         <v>3040</v>
       </c>
       <c r="G1592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1592" t="s">
         <v>4</v>
@@ -60705,7 +60729,7 @@
         <v>3046</v>
       </c>
       <c r="G1595" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1595" t="s">
         <v>4</v>
@@ -60734,7 +60758,7 @@
         <v>3048</v>
       </c>
       <c r="G1596" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1596" t="s">
         <v>4</v>
@@ -61198,7 +61222,7 @@
         <v>3080</v>
       </c>
       <c r="G1612" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1612" t="s">
         <v>4</v>
@@ -61227,7 +61251,7 @@
         <v>3082</v>
       </c>
       <c r="G1613" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1613" t="s">
         <v>4</v>
@@ -61314,7 +61338,7 @@
         <v>3088</v>
       </c>
       <c r="G1616" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1616" t="s">
         <v>4</v>
@@ -61343,7 +61367,7 @@
         <v>3090</v>
       </c>
       <c r="G1617" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1617" t="s">
         <v>4</v>
@@ -61401,7 +61425,7 @@
         <v>3094</v>
       </c>
       <c r="G1619" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1619" t="s">
         <v>4</v>
@@ -61430,7 +61454,7 @@
         <v>3096</v>
       </c>
       <c r="G1620" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1620" t="s">
         <v>4</v>
@@ -61488,7 +61512,7 @@
         <v>3100</v>
       </c>
       <c r="G1622" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1622" t="s">
         <v>4</v>
@@ -61517,7 +61541,7 @@
         <v>3102</v>
       </c>
       <c r="G1623" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1623" t="s">
         <v>4</v>
@@ -61546,7 +61570,7 @@
         <v>3104</v>
       </c>
       <c r="G1624" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1624" t="s">
         <v>4</v>
@@ -61575,7 +61599,7 @@
         <v>3106</v>
       </c>
       <c r="G1625" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1625" t="s">
         <v>4</v>
@@ -61662,7 +61686,7 @@
         <v>3112</v>
       </c>
       <c r="G1628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1628" t="s">
         <v>4</v>
@@ -61691,7 +61715,7 @@
         <v>3114</v>
       </c>
       <c r="G1629" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1629" t="s">
         <v>4</v>
@@ -61720,7 +61744,7 @@
         <v>3116</v>
       </c>
       <c r="G1630" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1630" t="s">
         <v>4</v>
@@ -61749,7 +61773,7 @@
         <v>3118</v>
       </c>
       <c r="G1631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1631" t="s">
         <v>4</v>
@@ -61778,7 +61802,7 @@
         <v>3120</v>
       </c>
       <c r="G1632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1632" t="s">
         <v>4</v>
@@ -61836,7 +61860,7 @@
         <v>3124</v>
       </c>
       <c r="G1634" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1634" t="s">
         <v>4</v>
@@ -61865,7 +61889,7 @@
         <v>3126</v>
       </c>
       <c r="G1635" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1635" t="s">
         <v>4</v>
@@ -61894,7 +61918,7 @@
         <v>3128</v>
       </c>
       <c r="G1636" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1636" t="s">
         <v>4</v>
@@ -61923,7 +61947,7 @@
         <v>3130</v>
       </c>
       <c r="G1637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1637" t="s">
         <v>4</v>
@@ -61952,7 +61976,7 @@
         <v>3132</v>
       </c>
       <c r="G1638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1638" t="s">
         <v>4</v>
@@ -61975,10 +61999,10 @@
         <v>1638</v>
       </c>
       <c r="E1639" t="s">
-        <v>3133</v>
+        <v>789</v>
       </c>
       <c r="F1639" t="s">
-        <v>3134</v>
+        <v>790</v>
       </c>
       <c r="G1639" t="n">
         <v>1</v>
@@ -62004,10 +62028,10 @@
         <v>1639</v>
       </c>
       <c r="E1640" t="s">
-        <v>789</v>
+        <v>3133</v>
       </c>
       <c r="F1640" t="s">
-        <v>790</v>
+        <v>3134</v>
       </c>
       <c r="G1640" t="n">
         <v>1</v>
@@ -62242,7 +62266,7 @@
         <v>3150</v>
       </c>
       <c r="G1648" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1648" t="s">
         <v>4</v>
@@ -62271,7 +62295,7 @@
         <v>3152</v>
       </c>
       <c r="G1649" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1649" t="s">
         <v>4</v>
@@ -62300,7 +62324,7 @@
         <v>3154</v>
       </c>
       <c r="G1650" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1650" t="s">
         <v>4</v>
@@ -62358,7 +62382,7 @@
         <v>3158</v>
       </c>
       <c r="G1652" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1652" t="s">
         <v>4</v>
@@ -62387,7 +62411,7 @@
         <v>3160</v>
       </c>
       <c r="G1653" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1653" t="s">
         <v>4</v>
@@ -62532,7 +62556,7 @@
         <v>3170</v>
       </c>
       <c r="G1658" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1658" t="s">
         <v>4</v>
@@ -62561,7 +62585,7 @@
         <v>3172</v>
       </c>
       <c r="G1659" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1659" t="s">
         <v>4</v>
@@ -62590,7 +62614,7 @@
         <v>3174</v>
       </c>
       <c r="G1660" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1660" t="s">
         <v>4</v>
@@ -62619,7 +62643,7 @@
         <v>3176</v>
       </c>
       <c r="G1661" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1661" t="s">
         <v>4</v>
@@ -62706,7 +62730,7 @@
         <v>3182</v>
       </c>
       <c r="G1664" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1664" t="s">
         <v>4</v>
@@ -62735,7 +62759,7 @@
         <v>3184</v>
       </c>
       <c r="G1665" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1665" t="s">
         <v>4</v>
@@ -62793,7 +62817,7 @@
         <v>3188</v>
       </c>
       <c r="G1667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1667" t="s">
         <v>4</v>
@@ -62822,7 +62846,7 @@
         <v>3190</v>
       </c>
       <c r="G1668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1668" t="s">
         <v>4</v>
@@ -62880,7 +62904,7 @@
         <v>3194</v>
       </c>
       <c r="G1670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1670" t="s">
         <v>4</v>
@@ -62909,7 +62933,7 @@
         <v>3196</v>
       </c>
       <c r="G1671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1671" t="s">
         <v>4</v>
@@ -62967,7 +62991,7 @@
         <v>3200</v>
       </c>
       <c r="G1673" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1673" t="s">
         <v>4</v>
@@ -62996,7 +63020,7 @@
         <v>3202</v>
       </c>
       <c r="G1674" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H1674" t="s">
         <v>4</v>
@@ -63025,7 +63049,7 @@
         <v>3204</v>
       </c>
       <c r="G1675" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1675" t="s">
         <v>4</v>
@@ -63054,7 +63078,7 @@
         <v>3206</v>
       </c>
       <c r="G1676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1676" t="s">
         <v>4</v>
@@ -63083,7 +63107,7 @@
         <v>3208</v>
       </c>
       <c r="G1677" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1677" t="s">
         <v>4</v>
@@ -63112,7 +63136,7 @@
         <v>3210</v>
       </c>
       <c r="G1678" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1678" t="s">
         <v>4</v>
@@ -63228,7 +63252,7 @@
         <v>3218</v>
       </c>
       <c r="G1682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1682" t="s">
         <v>4</v>
@@ -63257,7 +63281,7 @@
         <v>3220</v>
       </c>
       <c r="G1683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1683" t="s">
         <v>4</v>
@@ -63373,7 +63397,7 @@
         <v>3228</v>
       </c>
       <c r="G1687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1687" t="s">
         <v>4</v>
@@ -63431,7 +63455,7 @@
         <v>3232</v>
       </c>
       <c r="G1689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1689" t="s">
         <v>4</v>
@@ -63460,7 +63484,7 @@
         <v>3234</v>
       </c>
       <c r="G1690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1690" t="s">
         <v>4</v>
@@ -63489,7 +63513,7 @@
         <v>3236</v>
       </c>
       <c r="G1691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1691" t="s">
         <v>4</v>
@@ -63663,7 +63687,7 @@
         <v>3248</v>
       </c>
       <c r="G1697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1697" t="s">
         <v>4</v>
@@ -63686,10 +63710,10 @@
         <v>1697</v>
       </c>
       <c r="E1698" t="s">
-        <v>3249</v>
+        <v>1025</v>
       </c>
       <c r="F1698" t="s">
-        <v>3250</v>
+        <v>1026</v>
       </c>
       <c r="G1698" t="n">
         <v>2</v>
@@ -63715,13 +63739,13 @@
         <v>1698</v>
       </c>
       <c r="E1699" t="s">
-        <v>1025</v>
+        <v>1541</v>
       </c>
       <c r="F1699" t="s">
-        <v>1026</v>
+        <v>1542</v>
       </c>
       <c r="G1699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1699" t="s">
         <v>4</v>
@@ -63744,10 +63768,10 @@
         <v>1699</v>
       </c>
       <c r="E1700" t="s">
-        <v>1541</v>
+        <v>3249</v>
       </c>
       <c r="F1700" t="s">
-        <v>1542</v>
+        <v>3250</v>
       </c>
       <c r="G1700" t="n">
         <v>1</v>
@@ -63808,7 +63832,7 @@
         <v>3254</v>
       </c>
       <c r="G1702" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1702" t="s">
         <v>4</v>
@@ -63837,7 +63861,7 @@
         <v>3256</v>
       </c>
       <c r="G1703" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1703" t="s">
         <v>4</v>
@@ -64040,7 +64064,7 @@
         <v>3270</v>
       </c>
       <c r="G1710" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1710" t="s">
         <v>4</v>
@@ -64069,7 +64093,7 @@
         <v>3272</v>
       </c>
       <c r="G1711" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1711" t="s">
         <v>4</v>
@@ -64098,7 +64122,7 @@
         <v>3274</v>
       </c>
       <c r="G1712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1712" t="s">
         <v>4</v>
@@ -64127,7 +64151,7 @@
         <v>3276</v>
       </c>
       <c r="G1713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1713" t="s">
         <v>4</v>
@@ -64185,7 +64209,7 @@
         <v>3280</v>
       </c>
       <c r="G1715" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1715" t="s">
         <v>4</v>
@@ -64214,7 +64238,7 @@
         <v>3282</v>
       </c>
       <c r="G1716" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1716" t="s">
         <v>4</v>
@@ -64243,7 +64267,7 @@
         <v>3284</v>
       </c>
       <c r="G1717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1717" t="s">
         <v>4</v>
@@ -64272,7 +64296,7 @@
         <v>3286</v>
       </c>
       <c r="G1718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1718" t="s">
         <v>4</v>
@@ -64388,7 +64412,7 @@
         <v>3294</v>
       </c>
       <c r="G1722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1722" t="s">
         <v>4</v>
@@ -64417,7 +64441,7 @@
         <v>3296</v>
       </c>
       <c r="G1723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1723" t="s">
         <v>4</v>
@@ -64446,7 +64470,7 @@
         <v>3298</v>
       </c>
       <c r="G1724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1724" t="s">
         <v>4</v>
@@ -64475,7 +64499,7 @@
         <v>3300</v>
       </c>
       <c r="G1725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1725" t="s">
         <v>4</v>
@@ -64794,7 +64818,7 @@
         <v>3322</v>
       </c>
       <c r="G1736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1736" t="s">
         <v>4</v>
@@ -64823,7 +64847,7 @@
         <v>3324</v>
       </c>
       <c r="G1737" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H1737" t="s">
         <v>4</v>
@@ -64852,7 +64876,7 @@
         <v>3326</v>
       </c>
       <c r="G1738" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1738" t="s">
         <v>4</v>
@@ -64881,7 +64905,7 @@
         <v>3328</v>
       </c>
       <c r="G1739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1739" t="s">
         <v>4</v>
@@ -64939,7 +64963,7 @@
         <v>3332</v>
       </c>
       <c r="G1741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1741" t="s">
         <v>4</v>
@@ -64997,7 +65021,7 @@
         <v>3336</v>
       </c>
       <c r="G1743" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H1743" t="s">
         <v>4</v>
@@ -65026,7 +65050,7 @@
         <v>3338</v>
       </c>
       <c r="G1744" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1744" t="s">
         <v>4</v>
@@ -65055,7 +65079,7 @@
         <v>3340</v>
       </c>
       <c r="G1745" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1745" t="s">
         <v>4</v>
@@ -65084,7 +65108,7 @@
         <v>3342</v>
       </c>
       <c r="G1746" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H1746" t="s">
         <v>4</v>
@@ -65113,7 +65137,7 @@
         <v>3344</v>
       </c>
       <c r="G1747" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1747" t="s">
         <v>4</v>
@@ -65142,7 +65166,7 @@
         <v>3346</v>
       </c>
       <c r="G1748" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1748" t="s">
         <v>4</v>
@@ -65171,7 +65195,7 @@
         <v>3348</v>
       </c>
       <c r="G1749" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1749" t="s">
         <v>4</v>
@@ -65200,7 +65224,7 @@
         <v>3350</v>
       </c>
       <c r="G1750" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1750" t="s">
         <v>4</v>
@@ -65229,7 +65253,7 @@
         <v>3352</v>
       </c>
       <c r="G1751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1751" t="s">
         <v>4</v>
@@ -65287,7 +65311,7 @@
         <v>3356</v>
       </c>
       <c r="G1753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1753" t="s">
         <v>4</v>
@@ -65832,13 +65856,13 @@
         <v>1771</v>
       </c>
       <c r="E1772" t="s">
-        <v>3393</v>
+        <v>3345</v>
       </c>
       <c r="F1772" t="s">
-        <v>3394</v>
+        <v>3346</v>
       </c>
       <c r="G1772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1772" t="s">
         <v>4</v>
@@ -65861,13 +65885,13 @@
         <v>1772</v>
       </c>
       <c r="E1773" t="s">
-        <v>3347</v>
+        <v>3393</v>
       </c>
       <c r="F1773" t="s">
-        <v>3348</v>
+        <v>3394</v>
       </c>
       <c r="G1773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1773" t="s">
         <v>4</v>
@@ -65896,7 +65920,7 @@
         <v>3396</v>
       </c>
       <c r="G1774" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1774" t="s">
         <v>4</v>
@@ -65948,13 +65972,13 @@
         <v>1775</v>
       </c>
       <c r="E1776" t="s">
-        <v>3399</v>
+        <v>5</v>
       </c>
       <c r="F1776" t="s">
-        <v>3400</v>
+        <v>6</v>
       </c>
       <c r="G1776" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1776" t="s">
         <v>4</v>
@@ -65977,10 +66001,10 @@
         <v>1776</v>
       </c>
       <c r="E1777" t="s">
-        <v>5</v>
+        <v>3399</v>
       </c>
       <c r="F1777" t="s">
-        <v>6</v>
+        <v>3400</v>
       </c>
       <c r="G1777" t="n">
         <v>1</v>
@@ -66041,7 +66065,7 @@
         <v>3404</v>
       </c>
       <c r="G1779" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1779" t="s">
         <v>4</v>
@@ -66070,7 +66094,7 @@
         <v>3406</v>
       </c>
       <c r="G1780" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1780" t="s">
         <v>4</v>
@@ -66099,7 +66123,7 @@
         <v>3408</v>
       </c>
       <c r="G1781" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1781" t="s">
         <v>4</v>
@@ -66128,7 +66152,7 @@
         <v>3410</v>
       </c>
       <c r="G1782" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1782" t="s">
         <v>4</v>
@@ -66157,7 +66181,7 @@
         <v>3412</v>
       </c>
       <c r="G1783" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1783" t="s">
         <v>4</v>
@@ -66447,7 +66471,7 @@
         <v>3432</v>
       </c>
       <c r="G1793" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1793" t="s">
         <v>4</v>
@@ -66505,7 +66529,7 @@
         <v>3436</v>
       </c>
       <c r="G1795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1795" t="s">
         <v>4</v>
@@ -66534,7 +66558,7 @@
         <v>3438</v>
       </c>
       <c r="G1796" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1796" t="s">
         <v>4</v>
@@ -66563,7 +66587,7 @@
         <v>3440</v>
       </c>
       <c r="G1797" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1797" t="s">
         <v>4</v>
@@ -66592,7 +66616,7 @@
         <v>3442</v>
       </c>
       <c r="G1798" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1798" t="s">
         <v>4</v>
@@ -66708,7 +66732,7 @@
         <v>3450</v>
       </c>
       <c r="G1802" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1802" t="s">
         <v>4</v>
@@ -66737,7 +66761,7 @@
         <v>3452</v>
       </c>
       <c r="G1803" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1803" t="s">
         <v>4</v>
@@ -66824,7 +66848,7 @@
         <v>3458</v>
       </c>
       <c r="G1806" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1806" t="s">
         <v>4</v>
@@ -66853,7 +66877,7 @@
         <v>3460</v>
       </c>
       <c r="G1807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1807" t="s">
         <v>4</v>
@@ -66911,7 +66935,7 @@
         <v>3464</v>
       </c>
       <c r="G1809" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1809" t="s">
         <v>4</v>
@@ -66940,7 +66964,7 @@
         <v>3466</v>
       </c>
       <c r="G1810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1810" t="s">
         <v>4</v>
@@ -67056,7 +67080,7 @@
         <v>3474</v>
       </c>
       <c r="G1814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1814" t="s">
         <v>4</v>
@@ -67085,7 +67109,7 @@
         <v>3476</v>
       </c>
       <c r="G1815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1815" t="s">
         <v>4</v>
@@ -67195,13 +67219,13 @@
         <v>1818</v>
       </c>
       <c r="E1819" t="s">
-        <v>3483</v>
+        <v>35</v>
       </c>
       <c r="F1819" t="s">
-        <v>3484</v>
+        <v>36</v>
       </c>
       <c r="G1819" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1819" t="s">
         <v>4</v>
@@ -67224,13 +67248,13 @@
         <v>1819</v>
       </c>
       <c r="E1820" t="s">
-        <v>35</v>
+        <v>3483</v>
       </c>
       <c r="F1820" t="s">
-        <v>36</v>
+        <v>3484</v>
       </c>
       <c r="G1820" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1820" t="s">
         <v>4</v>
@@ -67253,13 +67277,13 @@
         <v>1820</v>
       </c>
       <c r="E1821" t="s">
-        <v>3485</v>
+        <v>599</v>
       </c>
       <c r="F1821" t="s">
-        <v>3486</v>
+        <v>600</v>
       </c>
       <c r="G1821" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1821" t="s">
         <v>4</v>
@@ -67282,10 +67306,10 @@
         <v>1821</v>
       </c>
       <c r="E1822" t="s">
-        <v>599</v>
+        <v>3485</v>
       </c>
       <c r="F1822" t="s">
-        <v>600</v>
+        <v>3486</v>
       </c>
       <c r="G1822" t="n">
         <v>1</v>
@@ -67427,10 +67451,10 @@
         <v>1826</v>
       </c>
       <c r="E1827" t="s">
-        <v>3495</v>
+        <v>463</v>
       </c>
       <c r="F1827" t="s">
-        <v>3496</v>
+        <v>464</v>
       </c>
       <c r="G1827" t="n">
         <v>1</v>
@@ -67456,13 +67480,13 @@
         <v>1827</v>
       </c>
       <c r="E1828" t="s">
-        <v>463</v>
+        <v>3495</v>
       </c>
       <c r="F1828" t="s">
-        <v>464</v>
+        <v>3496</v>
       </c>
       <c r="G1828" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1828" t="s">
         <v>4</v>
@@ -67491,7 +67515,7 @@
         <v>3498</v>
       </c>
       <c r="G1829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1829" t="s">
         <v>4</v>
@@ -67549,7 +67573,7 @@
         <v>3502</v>
       </c>
       <c r="G1831" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1831" t="s">
         <v>4</v>
@@ -67578,7 +67602,7 @@
         <v>3504</v>
       </c>
       <c r="G1832" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1832" t="s">
         <v>4</v>
@@ -67636,7 +67660,7 @@
         <v>3508</v>
       </c>
       <c r="G1834" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1834" t="s">
         <v>4</v>
@@ -67665,7 +67689,7 @@
         <v>3510</v>
       </c>
       <c r="G1835" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1835" t="s">
         <v>4</v>
@@ -67723,7 +67747,7 @@
         <v>3514</v>
       </c>
       <c r="G1837" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1837" t="s">
         <v>4</v>
@@ -67752,7 +67776,7 @@
         <v>3516</v>
       </c>
       <c r="G1838" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1838" t="s">
         <v>4</v>
@@ -68071,7 +68095,7 @@
         <v>3538</v>
       </c>
       <c r="G1849" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1849" t="s">
         <v>4</v>
@@ -68100,7 +68124,7 @@
         <v>3540</v>
       </c>
       <c r="G1850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1850" t="s">
         <v>4</v>
@@ -68129,7 +68153,7 @@
         <v>3542</v>
       </c>
       <c r="G1851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1851" t="s">
         <v>4</v>
@@ -68152,10 +68176,10 @@
         <v>1851</v>
       </c>
       <c r="E1852" t="s">
-        <v>3543</v>
+        <v>1133</v>
       </c>
       <c r="F1852" t="s">
-        <v>3544</v>
+        <v>1134</v>
       </c>
       <c r="G1852" t="n">
         <v>1</v>
@@ -68181,10 +68205,10 @@
         <v>1852</v>
       </c>
       <c r="E1853" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F1853" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G1853" t="n">
         <v>1</v>
@@ -68210,10 +68234,10 @@
         <v>1853</v>
       </c>
       <c r="E1854" t="s">
-        <v>1135</v>
+        <v>945</v>
       </c>
       <c r="F1854" t="s">
-        <v>1136</v>
+        <v>946</v>
       </c>
       <c r="G1854" t="n">
         <v>1</v>
@@ -68239,10 +68263,10 @@
         <v>1854</v>
       </c>
       <c r="E1855" t="s">
-        <v>945</v>
+        <v>3543</v>
       </c>
       <c r="F1855" t="s">
-        <v>946</v>
+        <v>3544</v>
       </c>
       <c r="G1855" t="n">
         <v>1</v>
@@ -68477,7 +68501,7 @@
         <v>3560</v>
       </c>
       <c r="G1863" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1863" t="s">
         <v>4</v>
@@ -68506,7 +68530,7 @@
         <v>3562</v>
       </c>
       <c r="G1864" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1864" t="s">
         <v>4</v>
@@ -68535,7 +68559,7 @@
         <v>3564</v>
       </c>
       <c r="G1865" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1865" t="s">
         <v>4</v>
@@ -68558,13 +68582,13 @@
         <v>1865</v>
       </c>
       <c r="E1866" t="s">
-        <v>3565</v>
+        <v>1173</v>
       </c>
       <c r="F1866" t="s">
-        <v>3566</v>
+        <v>1174</v>
       </c>
       <c r="G1866" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1866" t="s">
         <v>4</v>
@@ -68587,13 +68611,13 @@
         <v>1866</v>
       </c>
       <c r="E1867" t="s">
-        <v>1173</v>
+        <v>1939</v>
       </c>
       <c r="F1867" t="s">
-        <v>1174</v>
+        <v>1940</v>
       </c>
       <c r="G1867" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1867" t="s">
         <v>4</v>
@@ -68616,13 +68640,13 @@
         <v>1867</v>
       </c>
       <c r="E1868" t="s">
-        <v>1939</v>
+        <v>3565</v>
       </c>
       <c r="F1868" t="s">
-        <v>1940</v>
+        <v>3566</v>
       </c>
       <c r="G1868" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1868" t="s">
         <v>4</v>
@@ -68709,7 +68733,7 @@
         <v>3572</v>
       </c>
       <c r="G1871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1871" t="s">
         <v>4</v>
@@ -68796,7 +68820,7 @@
         <v>3578</v>
       </c>
       <c r="G1874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1874" t="s">
         <v>4</v>
@@ -68825,7 +68849,7 @@
         <v>3580</v>
       </c>
       <c r="G1875" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1875" t="s">
         <v>4</v>
@@ -68854,7 +68878,7 @@
         <v>3582</v>
       </c>
       <c r="G1876" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1876" t="s">
         <v>4</v>
@@ -68941,7 +68965,7 @@
         <v>3588</v>
       </c>
       <c r="G1879" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H1879" t="s">
         <v>4</v>
@@ -68970,7 +68994,7 @@
         <v>3590</v>
       </c>
       <c r="G1880" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H1880" t="s">
         <v>4</v>
@@ -68999,7 +69023,7 @@
         <v>3592</v>
       </c>
       <c r="G1881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1881" t="s">
         <v>4</v>
@@ -69086,7 +69110,7 @@
         <v>3598</v>
       </c>
       <c r="G1884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1884" t="s">
         <v>4</v>
@@ -69138,13 +69162,13 @@
         <v>1885</v>
       </c>
       <c r="E1886" t="s">
-        <v>3601</v>
+        <v>1141</v>
       </c>
       <c r="F1886" t="s">
-        <v>3602</v>
+        <v>1142</v>
       </c>
       <c r="G1886" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1886" t="s">
         <v>4</v>
@@ -69167,13 +69191,13 @@
         <v>1886</v>
       </c>
       <c r="E1887" t="s">
-        <v>1141</v>
+        <v>3601</v>
       </c>
       <c r="F1887" t="s">
-        <v>1142</v>
+        <v>3602</v>
       </c>
       <c r="G1887" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1887" t="s">
         <v>4</v>
@@ -69231,7 +69255,7 @@
         <v>3606</v>
       </c>
       <c r="G1889" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1889" t="s">
         <v>4</v>
@@ -69260,7 +69284,7 @@
         <v>3608</v>
       </c>
       <c r="G1890" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1890" t="s">
         <v>4</v>
@@ -69289,7 +69313,7 @@
         <v>3610</v>
       </c>
       <c r="G1891" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1891" t="s">
         <v>4</v>
@@ -69312,10 +69336,10 @@
         <v>1891</v>
       </c>
       <c r="E1892" t="s">
-        <v>3611</v>
+        <v>1145</v>
       </c>
       <c r="F1892" t="s">
-        <v>3612</v>
+        <v>1146</v>
       </c>
       <c r="G1892" t="n">
         <v>1</v>
@@ -69341,13 +69365,13 @@
         <v>1892</v>
       </c>
       <c r="E1893" t="s">
-        <v>1145</v>
+        <v>3611</v>
       </c>
       <c r="F1893" t="s">
-        <v>1146</v>
+        <v>3612</v>
       </c>
       <c r="G1893" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H1893" t="s">
         <v>4</v>
@@ -69376,7 +69400,7 @@
         <v>3614</v>
       </c>
       <c r="G1894" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H1894" t="s">
         <v>4</v>
@@ -69428,10 +69452,10 @@
         <v>1895</v>
       </c>
       <c r="E1896" t="s">
-        <v>3617</v>
+        <v>309</v>
       </c>
       <c r="F1896" t="s">
-        <v>3618</v>
+        <v>310</v>
       </c>
       <c r="G1896" t="n">
         <v>1</v>
@@ -69457,10 +69481,10 @@
         <v>1896</v>
       </c>
       <c r="E1897" t="s">
-        <v>309</v>
+        <v>3617</v>
       </c>
       <c r="F1897" t="s">
-        <v>310</v>
+        <v>3618</v>
       </c>
       <c r="G1897" t="n">
         <v>1</v>
@@ -69689,13 +69713,13 @@
         <v>1904</v>
       </c>
       <c r="E1905" t="s">
-        <v>3633</v>
+        <v>53</v>
       </c>
       <c r="F1905" t="s">
-        <v>3634</v>
+        <v>54</v>
       </c>
       <c r="G1905" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1905" t="s">
         <v>4</v>
@@ -69718,13 +69742,13 @@
         <v>1905</v>
       </c>
       <c r="E1906" t="s">
-        <v>53</v>
+        <v>639</v>
       </c>
       <c r="F1906" t="s">
-        <v>54</v>
+        <v>640</v>
       </c>
       <c r="G1906" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1906" t="s">
         <v>4</v>
@@ -69747,13 +69771,13 @@
         <v>1906</v>
       </c>
       <c r="E1907" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F1907" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G1907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1907" t="s">
         <v>4</v>
@@ -69776,13 +69800,13 @@
         <v>1907</v>
       </c>
       <c r="E1908" t="s">
-        <v>647</v>
+        <v>3633</v>
       </c>
       <c r="F1908" t="s">
-        <v>648</v>
+        <v>3634</v>
       </c>
       <c r="G1908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1908" t="s">
         <v>4</v>
@@ -69840,7 +69864,7 @@
         <v>3638</v>
       </c>
       <c r="G1910" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1910" t="s">
         <v>4</v>
@@ -69863,13 +69887,13 @@
         <v>1910</v>
       </c>
       <c r="E1911" t="s">
-        <v>3639</v>
+        <v>823</v>
       </c>
       <c r="F1911" t="s">
-        <v>3640</v>
+        <v>824</v>
       </c>
       <c r="G1911" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1911" t="s">
         <v>4</v>
@@ -69892,13 +69916,13 @@
         <v>1911</v>
       </c>
       <c r="E1912" t="s">
-        <v>823</v>
+        <v>1081</v>
       </c>
       <c r="F1912" t="s">
-        <v>824</v>
+        <v>1082</v>
       </c>
       <c r="G1912" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1912" t="s">
         <v>4</v>
@@ -69921,13 +69945,13 @@
         <v>1912</v>
       </c>
       <c r="E1913" t="s">
-        <v>1081</v>
+        <v>3639</v>
       </c>
       <c r="F1913" t="s">
-        <v>1082</v>
+        <v>3640</v>
       </c>
       <c r="G1913" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H1913" t="s">
         <v>4</v>
@@ -69950,13 +69974,13 @@
         <v>1913</v>
       </c>
       <c r="E1914" t="s">
-        <v>3641</v>
+        <v>1</v>
       </c>
       <c r="F1914" t="s">
-        <v>3642</v>
+        <v>0</v>
       </c>
       <c r="G1914" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1914" t="s">
         <v>4</v>
@@ -69979,13 +70003,13 @@
         <v>1914</v>
       </c>
       <c r="E1915" t="s">
-        <v>1</v>
+        <v>3641</v>
       </c>
       <c r="F1915" t="s">
-        <v>0</v>
+        <v>3642</v>
       </c>
       <c r="G1915" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H1915" t="s">
         <v>4</v>
@@ -70298,13 +70322,13 @@
         <v>1925</v>
       </c>
       <c r="E1926" t="s">
-        <v>3663</v>
+        <v>1335</v>
       </c>
       <c r="F1926" t="s">
-        <v>3664</v>
+        <v>1336</v>
       </c>
       <c r="G1926" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H1926" t="s">
         <v>4</v>
@@ -70327,13 +70351,13 @@
         <v>1926</v>
       </c>
       <c r="E1927" t="s">
-        <v>1335</v>
+        <v>3663</v>
       </c>
       <c r="F1927" t="s">
-        <v>1336</v>
+        <v>3664</v>
       </c>
       <c r="G1927" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H1927" t="s">
         <v>4</v>
@@ -70356,13 +70380,13 @@
         <v>1927</v>
       </c>
       <c r="E1928" t="s">
-        <v>3665</v>
+        <v>1453</v>
       </c>
       <c r="F1928" t="s">
-        <v>3666</v>
+        <v>1454</v>
       </c>
       <c r="G1928" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H1928" t="s">
         <v>4</v>
@@ -70385,13 +70409,13 @@
         <v>1928</v>
       </c>
       <c r="E1929" t="s">
-        <v>1453</v>
+        <v>3665</v>
       </c>
       <c r="F1929" t="s">
-        <v>1454</v>
+        <v>3666</v>
       </c>
       <c r="G1929" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H1929" t="s">
         <v>4</v>
@@ -70414,10 +70438,10 @@
         <v>1929</v>
       </c>
       <c r="E1930" t="s">
-        <v>3667</v>
+        <v>3487</v>
       </c>
       <c r="F1930" t="s">
-        <v>3668</v>
+        <v>3488</v>
       </c>
       <c r="G1930" t="n">
         <v>1</v>
@@ -70443,10 +70467,10 @@
         <v>1930</v>
       </c>
       <c r="E1931" t="s">
-        <v>3489</v>
+        <v>3667</v>
       </c>
       <c r="F1931" t="s">
-        <v>3490</v>
+        <v>3668</v>
       </c>
       <c r="G1931" t="n">
         <v>1</v>
@@ -70501,13 +70525,13 @@
         <v>1932</v>
       </c>
       <c r="E1933" t="s">
-        <v>3671</v>
+        <v>91</v>
       </c>
       <c r="F1933" t="s">
-        <v>3672</v>
+        <v>92</v>
       </c>
       <c r="G1933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1933" t="s">
         <v>4</v>
@@ -70530,13 +70554,13 @@
         <v>1933</v>
       </c>
       <c r="E1934" t="s">
-        <v>91</v>
+        <v>3671</v>
       </c>
       <c r="F1934" t="s">
-        <v>92</v>
+        <v>3672</v>
       </c>
       <c r="G1934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1934" t="s">
         <v>4</v>
@@ -70559,13 +70583,13 @@
         <v>1934</v>
       </c>
       <c r="E1935" t="s">
-        <v>3673</v>
+        <v>1459</v>
       </c>
       <c r="F1935" t="s">
-        <v>3674</v>
+        <v>1460</v>
       </c>
       <c r="G1935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1935" t="s">
         <v>4</v>
@@ -70588,13 +70612,13 @@
         <v>1935</v>
       </c>
       <c r="E1936" t="s">
-        <v>1459</v>
+        <v>3673</v>
       </c>
       <c r="F1936" t="s">
-        <v>1460</v>
+        <v>3674</v>
       </c>
       <c r="G1936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1936" t="s">
         <v>4</v>
@@ -70704,13 +70728,13 @@
         <v>1939</v>
       </c>
       <c r="E1940" t="s">
-        <v>3681</v>
+        <v>1627</v>
       </c>
       <c r="F1940" t="s">
-        <v>3682</v>
+        <v>1628</v>
       </c>
       <c r="G1940" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1940" t="s">
         <v>4</v>
@@ -70733,13 +70757,13 @@
         <v>1940</v>
       </c>
       <c r="E1941" t="s">
-        <v>1627</v>
+        <v>3681</v>
       </c>
       <c r="F1941" t="s">
-        <v>1628</v>
+        <v>3682</v>
       </c>
       <c r="G1941" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1941" t="s">
         <v>4</v>
@@ -70820,10 +70844,10 @@
         <v>1943</v>
       </c>
       <c r="E1944" t="s">
-        <v>3687</v>
+        <v>1909</v>
       </c>
       <c r="F1944" t="s">
-        <v>3688</v>
+        <v>1910</v>
       </c>
       <c r="G1944" t="n">
         <v>1</v>
@@ -70849,10 +70873,10 @@
         <v>1944</v>
       </c>
       <c r="E1945" t="s">
-        <v>1909</v>
+        <v>3687</v>
       </c>
       <c r="F1945" t="s">
-        <v>1910</v>
+        <v>3688</v>
       </c>
       <c r="G1945" t="n">
         <v>1</v>
@@ -70936,13 +70960,13 @@
         <v>1947</v>
       </c>
       <c r="E1948" t="s">
-        <v>3693</v>
+        <v>2151</v>
       </c>
       <c r="F1948" t="s">
-        <v>3694</v>
+        <v>2152</v>
       </c>
       <c r="G1948" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H1948" t="s">
         <v>4</v>
@@ -70965,13 +70989,13 @@
         <v>1948</v>
       </c>
       <c r="E1949" t="s">
-        <v>2151</v>
+        <v>3693</v>
       </c>
       <c r="F1949" t="s">
-        <v>2152</v>
+        <v>3694</v>
       </c>
       <c r="G1949" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H1949" t="s">
         <v>4</v>
@@ -71052,13 +71076,13 @@
         <v>1951</v>
       </c>
       <c r="E1952" t="s">
-        <v>3699</v>
+        <v>3241</v>
       </c>
       <c r="F1952" t="s">
-        <v>3700</v>
+        <v>3242</v>
       </c>
       <c r="G1952" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1952" t="s">
         <v>4</v>
@@ -71081,13 +71105,13 @@
         <v>1952</v>
       </c>
       <c r="E1953" t="s">
-        <v>3243</v>
+        <v>3699</v>
       </c>
       <c r="F1953" t="s">
-        <v>3244</v>
+        <v>3700</v>
       </c>
       <c r="G1953" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1953" t="s">
         <v>4</v>
@@ -71110,13 +71134,13 @@
         <v>1953</v>
       </c>
       <c r="E1954" t="s">
-        <v>3701</v>
+        <v>2413</v>
       </c>
       <c r="F1954" t="s">
-        <v>3702</v>
+        <v>2414</v>
       </c>
       <c r="G1954" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H1954" t="s">
         <v>4</v>
@@ -71139,13 +71163,13 @@
         <v>1954</v>
       </c>
       <c r="E1955" t="s">
-        <v>2415</v>
+        <v>3701</v>
       </c>
       <c r="F1955" t="s">
-        <v>2416</v>
+        <v>3702</v>
       </c>
       <c r="G1955" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1955" t="s">
         <v>4</v>
@@ -71168,13 +71192,13 @@
         <v>1955</v>
       </c>
       <c r="E1956" t="s">
-        <v>3703</v>
+        <v>2679</v>
       </c>
       <c r="F1956" t="s">
-        <v>3704</v>
+        <v>2680</v>
       </c>
       <c r="G1956" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H1956" t="s">
         <v>4</v>
@@ -71197,13 +71221,13 @@
         <v>1956</v>
       </c>
       <c r="E1957" t="s">
-        <v>2681</v>
+        <v>3703</v>
       </c>
       <c r="F1957" t="s">
-        <v>2682</v>
+        <v>3704</v>
       </c>
       <c r="G1957" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H1957" t="s">
         <v>4</v>
@@ -71313,13 +71337,13 @@
         <v>1960</v>
       </c>
       <c r="E1961" t="s">
-        <v>3711</v>
+        <v>13</v>
       </c>
       <c r="F1961" t="s">
-        <v>3712</v>
+        <v>14</v>
       </c>
       <c r="G1961" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H1961" t="s">
         <v>4</v>
@@ -71342,13 +71366,13 @@
         <v>1961</v>
       </c>
       <c r="E1962" t="s">
-        <v>13</v>
+        <v>1085</v>
       </c>
       <c r="F1962" t="s">
-        <v>14</v>
+        <v>1086</v>
       </c>
       <c r="G1962" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H1962" t="s">
         <v>4</v>
@@ -71371,13 +71395,13 @@
         <v>1962</v>
       </c>
       <c r="E1963" t="s">
-        <v>1085</v>
+        <v>3711</v>
       </c>
       <c r="F1963" t="s">
-        <v>1086</v>
+        <v>3712</v>
       </c>
       <c r="G1963" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1963" t="s">
         <v>4</v>
@@ -71400,13 +71424,13 @@
         <v>1963</v>
       </c>
       <c r="E1964" t="s">
-        <v>3713</v>
+        <v>1147</v>
       </c>
       <c r="F1964" t="s">
-        <v>3714</v>
+        <v>1148</v>
       </c>
       <c r="G1964" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1964" t="s">
         <v>4</v>
@@ -71429,13 +71453,13 @@
         <v>1964</v>
       </c>
       <c r="E1965" t="s">
-        <v>1147</v>
+        <v>3713</v>
       </c>
       <c r="F1965" t="s">
-        <v>1148</v>
+        <v>3714</v>
       </c>
       <c r="G1965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1965" t="s">
         <v>4</v>
@@ -71493,7 +71517,7 @@
         <v>3718</v>
       </c>
       <c r="G1967" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1967" t="s">
         <v>4</v>
@@ -71522,7 +71546,7 @@
         <v>3720</v>
       </c>
       <c r="G1968" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1968" t="s">
         <v>4</v>
@@ -71609,7 +71633,7 @@
         <v>3726</v>
       </c>
       <c r="G1971" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1971" t="s">
         <v>4</v>
@@ -71638,7 +71662,7 @@
         <v>3728</v>
       </c>
       <c r="G1972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1972" t="s">
         <v>4</v>
@@ -71725,7 +71749,7 @@
         <v>3734</v>
       </c>
       <c r="G1975" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1975" t="s">
         <v>4</v>
@@ -71754,7 +71778,7 @@
         <v>3736</v>
       </c>
       <c r="G1976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1976" t="s">
         <v>4</v>
@@ -71957,7 +71981,7 @@
         <v>3750</v>
       </c>
       <c r="G1983" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1983" t="s">
         <v>4</v>
@@ -71986,7 +72010,7 @@
         <v>3752</v>
       </c>
       <c r="G1984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1984" t="s">
         <v>4</v>
@@ -72218,7 +72242,7 @@
         <v>3768</v>
       </c>
       <c r="G1992" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1992" t="s">
         <v>4</v>
@@ -72247,7 +72271,7 @@
         <v>3770</v>
       </c>
       <c r="G1993" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1993" t="s">
         <v>4</v>
@@ -72363,7 +72387,7 @@
         <v>3778</v>
       </c>
       <c r="G1997" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1997" t="s">
         <v>4</v>
@@ -72392,7 +72416,7 @@
         <v>3780</v>
       </c>
       <c r="G1998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1998" t="s">
         <v>4</v>
@@ -72798,7 +72822,7 @@
         <v>3808</v>
       </c>
       <c r="G2012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2012" t="s">
         <v>4</v>
@@ -72827,7 +72851,7 @@
         <v>3810</v>
       </c>
       <c r="G2013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2013" t="s">
         <v>4</v>
@@ -73697,7 +73721,7 @@
         <v>3870</v>
       </c>
       <c r="G2043" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2043" t="s">
         <v>4</v>
@@ -73726,7 +73750,7 @@
         <v>3872</v>
       </c>
       <c r="G2044" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2044" t="s">
         <v>4</v>
@@ -74219,7 +74243,7 @@
         <v>3906</v>
       </c>
       <c r="G2061" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2061" t="s">
         <v>4</v>
@@ -74248,7 +74272,7 @@
         <v>3908</v>
       </c>
       <c r="G2062" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2062" t="s">
         <v>4</v>
@@ -74271,13 +74295,13 @@
         <v>2062</v>
       </c>
       <c r="E2063" t="s">
-        <v>3909</v>
+        <v>1081</v>
       </c>
       <c r="F2063" t="s">
-        <v>3910</v>
+        <v>1082</v>
       </c>
       <c r="G2063" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2063" t="s">
         <v>4</v>
@@ -74300,13 +74324,13 @@
         <v>2063</v>
       </c>
       <c r="E2064" t="s">
-        <v>1081</v>
+        <v>3909</v>
       </c>
       <c r="F2064" t="s">
-        <v>1082</v>
+        <v>3910</v>
       </c>
       <c r="G2064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2064" t="s">
         <v>4</v>
@@ -74335,7 +74359,7 @@
         <v>3912</v>
       </c>
       <c r="G2065" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2065" t="s">
         <v>4</v>
@@ -74364,7 +74388,7 @@
         <v>3914</v>
       </c>
       <c r="G2066" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2066" t="s">
         <v>4</v>
@@ -74387,13 +74411,13 @@
         <v>2066</v>
       </c>
       <c r="E2067" t="s">
-        <v>3915</v>
+        <v>3539</v>
       </c>
       <c r="F2067" t="s">
-        <v>3916</v>
+        <v>3540</v>
       </c>
       <c r="G2067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2067" t="s">
         <v>4</v>
@@ -74416,13 +74440,13 @@
         <v>2067</v>
       </c>
       <c r="E2068" t="s">
-        <v>3541</v>
+        <v>3915</v>
       </c>
       <c r="F2068" t="s">
-        <v>3542</v>
+        <v>3916</v>
       </c>
       <c r="G2068" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2068" t="s">
         <v>4</v>
@@ -74451,7 +74475,7 @@
         <v>3918</v>
       </c>
       <c r="G2069" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2069" t="s">
         <v>4</v>
@@ -74474,10 +74498,10 @@
         <v>2069</v>
       </c>
       <c r="E2070" t="s">
-        <v>3919</v>
+        <v>923</v>
       </c>
       <c r="F2070" t="s">
-        <v>3920</v>
+        <v>924</v>
       </c>
       <c r="G2070" t="n">
         <v>1</v>
@@ -74503,10 +74527,10 @@
         <v>2070</v>
       </c>
       <c r="E2071" t="s">
-        <v>923</v>
+        <v>3919</v>
       </c>
       <c r="F2071" t="s">
-        <v>924</v>
+        <v>3920</v>
       </c>
       <c r="G2071" t="n">
         <v>1</v>
@@ -74567,7 +74591,7 @@
         <v>3924</v>
       </c>
       <c r="G2073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2073" t="s">
         <v>4</v>
@@ -74590,13 +74614,13 @@
         <v>2073</v>
       </c>
       <c r="E2074" t="s">
-        <v>3925</v>
+        <v>1047</v>
       </c>
       <c r="F2074" t="s">
-        <v>3926</v>
+        <v>1048</v>
       </c>
       <c r="G2074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2074" t="s">
         <v>4</v>
@@ -74619,13 +74643,13 @@
         <v>2074</v>
       </c>
       <c r="E2075" t="s">
-        <v>1047</v>
+        <v>3925</v>
       </c>
       <c r="F2075" t="s">
-        <v>1048</v>
+        <v>3926</v>
       </c>
       <c r="G2075" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2075" t="s">
         <v>4</v>
@@ -74822,10 +74846,10 @@
         <v>2081</v>
       </c>
       <c r="E2082" t="s">
-        <v>3939</v>
+        <v>159</v>
       </c>
       <c r="F2082" t="s">
-        <v>3940</v>
+        <v>160</v>
       </c>
       <c r="G2082" t="n">
         <v>1</v>
@@ -74851,13 +74875,13 @@
         <v>2082</v>
       </c>
       <c r="E2083" t="s">
-        <v>159</v>
+        <v>3939</v>
       </c>
       <c r="F2083" t="s">
-        <v>160</v>
+        <v>3940</v>
       </c>
       <c r="G2083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2083" t="s">
         <v>4</v>
@@ -74886,7 +74910,7 @@
         <v>3942</v>
       </c>
       <c r="G2084" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2084" t="s">
         <v>4</v>
@@ -74915,7 +74939,7 @@
         <v>3944</v>
       </c>
       <c r="G2085" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2085" t="s">
         <v>4</v>
@@ -74944,7 +74968,7 @@
         <v>3946</v>
       </c>
       <c r="G2086" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2086" t="s">
         <v>4</v>
@@ -74973,7 +74997,7 @@
         <v>3948</v>
       </c>
       <c r="G2087" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2087" t="s">
         <v>4</v>
@@ -75002,7 +75026,7 @@
         <v>3950</v>
       </c>
       <c r="G2088" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2088" t="s">
         <v>4</v>
@@ -75031,7 +75055,7 @@
         <v>3952</v>
       </c>
       <c r="G2089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2089" t="s">
         <v>4</v>
@@ -75060,7 +75084,7 @@
         <v>3954</v>
       </c>
       <c r="G2090" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2090" t="s">
         <v>4</v>
@@ -75089,7 +75113,7 @@
         <v>3956</v>
       </c>
       <c r="G2091" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2091" t="s">
         <v>4</v>
@@ -75118,7 +75142,7 @@
         <v>3958</v>
       </c>
       <c r="G2092" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2092" t="s">
         <v>4</v>
@@ -75147,7 +75171,7 @@
         <v>3960</v>
       </c>
       <c r="G2093" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H2093" t="s">
         <v>4</v>
@@ -75176,7 +75200,7 @@
         <v>3962</v>
       </c>
       <c r="G2094" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2094" t="s">
         <v>4</v>
@@ -75205,7 +75229,7 @@
         <v>3964</v>
       </c>
       <c r="G2095" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2095" t="s">
         <v>4</v>
@@ -75234,7 +75258,7 @@
         <v>3966</v>
       </c>
       <c r="G2096" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2096" t="s">
         <v>4</v>
@@ -75263,7 +75287,7 @@
         <v>3968</v>
       </c>
       <c r="G2097" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2097" t="s">
         <v>4</v>
@@ -75292,7 +75316,7 @@
         <v>3970</v>
       </c>
       <c r="G2098" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2098" t="s">
         <v>4</v>
@@ -75321,7 +75345,7 @@
         <v>3972</v>
       </c>
       <c r="G2099" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2099" t="s">
         <v>4</v>
@@ -75350,7 +75374,7 @@
         <v>3974</v>
       </c>
       <c r="G2100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2100" t="s">
         <v>4</v>
@@ -75379,7 +75403,7 @@
         <v>3976</v>
       </c>
       <c r="G2101" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2101" t="s">
         <v>4</v>
@@ -75408,7 +75432,7 @@
         <v>3978</v>
       </c>
       <c r="G2102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2102" t="s">
         <v>4</v>
@@ -75437,7 +75461,7 @@
         <v>3980</v>
       </c>
       <c r="G2103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2103" t="s">
         <v>4</v>
@@ -75466,7 +75490,7 @@
         <v>3982</v>
       </c>
       <c r="G2104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2104" t="s">
         <v>4</v>
@@ -75489,13 +75513,13 @@
         <v>2104</v>
       </c>
       <c r="E2105" t="s">
-        <v>3983</v>
+        <v>1351</v>
       </c>
       <c r="F2105" t="s">
-        <v>3984</v>
+        <v>1352</v>
       </c>
       <c r="G2105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2105" t="s">
         <v>4</v>
@@ -75518,13 +75542,13 @@
         <v>2105</v>
       </c>
       <c r="E2106" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="F2106" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="G2106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2106" t="s">
         <v>4</v>
@@ -75547,13 +75571,13 @@
         <v>2106</v>
       </c>
       <c r="E2107" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="F2107" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="G2107" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2107" t="s">
         <v>4</v>
@@ -75576,13 +75600,13 @@
         <v>2107</v>
       </c>
       <c r="E2108" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="F2108" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G2108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2108" t="s">
         <v>4</v>
@@ -75605,10 +75629,10 @@
         <v>2108</v>
       </c>
       <c r="E2109" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="F2109" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="G2109" t="n">
         <v>3</v>
@@ -75634,13 +75658,13 @@
         <v>2109</v>
       </c>
       <c r="E2110" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="F2110" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="G2110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2110" t="s">
         <v>4</v>
@@ -75663,13 +75687,13 @@
         <v>2110</v>
       </c>
       <c r="E2111" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="F2111" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="G2111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2111" t="s">
         <v>4</v>
@@ -75692,13 +75716,13 @@
         <v>2111</v>
       </c>
       <c r="E2112" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="F2112" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="G2112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2112" t="s">
         <v>4</v>
@@ -75721,13 +75745,13 @@
         <v>2112</v>
       </c>
       <c r="E2113" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="F2113" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="G2113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2113" t="s">
         <v>4</v>
@@ -75750,13 +75774,13 @@
         <v>2113</v>
       </c>
       <c r="E2114" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="F2114" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="G2114" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2114" t="s">
         <v>4</v>
@@ -75779,13 +75803,13 @@
         <v>2114</v>
       </c>
       <c r="E2115" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="F2115" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="G2115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2115" t="s">
         <v>4</v>
@@ -75808,13 +75832,13 @@
         <v>2115</v>
       </c>
       <c r="E2116" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="F2116" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="G2116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2116" t="s">
         <v>4</v>
@@ -75837,13 +75861,13 @@
         <v>2116</v>
       </c>
       <c r="E2117" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="F2117" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="G2117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2117" t="s">
         <v>4</v>
@@ -75866,13 +75890,13 @@
         <v>2117</v>
       </c>
       <c r="E2118" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="F2118" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="G2118" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2118" t="s">
         <v>4</v>
@@ -75895,13 +75919,13 @@
         <v>2118</v>
       </c>
       <c r="E2119" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="F2119" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="G2119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2119" t="s">
         <v>4</v>
@@ -75924,13 +75948,13 @@
         <v>2119</v>
       </c>
       <c r="E2120" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F2120" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="G2120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2120" t="s">
         <v>4</v>
@@ -75953,13 +75977,13 @@
         <v>2120</v>
       </c>
       <c r="E2121" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="F2121" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="G2121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2121" t="s">
         <v>4</v>
@@ -75982,13 +76006,13 @@
         <v>2121</v>
       </c>
       <c r="E2122" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="F2122" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="G2122" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H2122" t="s">
         <v>4</v>
@@ -76011,10 +76035,10 @@
         <v>2122</v>
       </c>
       <c r="E2123" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="F2123" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="G2123" t="n">
         <v>1</v>
@@ -76040,13 +76064,13 @@
         <v>2123</v>
       </c>
       <c r="E2124" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="F2124" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="G2124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2124" t="s">
         <v>4</v>
@@ -76069,10 +76093,10 @@
         <v>2124</v>
       </c>
       <c r="E2125" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="F2125" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="G2125" t="n">
         <v>1</v>
@@ -76098,10 +76122,10 @@
         <v>2125</v>
       </c>
       <c r="E2126" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="F2126" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="G2126" t="n">
         <v>1</v>
@@ -76127,13 +76151,13 @@
         <v>2126</v>
       </c>
       <c r="E2127" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="F2127" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="G2127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2127" t="s">
         <v>4</v>
@@ -76156,10 +76180,10 @@
         <v>2127</v>
       </c>
       <c r="E2128" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F2128" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="G2128" t="n">
         <v>1</v>
@@ -76185,13 +76209,13 @@
         <v>2128</v>
       </c>
       <c r="E2129" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="F2129" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="G2129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2129" t="s">
         <v>4</v>
@@ -76214,10 +76238,10 @@
         <v>2129</v>
       </c>
       <c r="E2130" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="F2130" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="G2130" t="n">
         <v>1</v>
@@ -76243,13 +76267,13 @@
         <v>2130</v>
       </c>
       <c r="E2131" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="F2131" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="G2131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2131" t="s">
         <v>4</v>
@@ -76272,13 +76296,13 @@
         <v>2131</v>
       </c>
       <c r="E2132" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="F2132" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="G2132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2132" t="s">
         <v>4</v>
@@ -76301,10 +76325,10 @@
         <v>2132</v>
       </c>
       <c r="E2133" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="F2133" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="G2133" t="n">
         <v>1</v>
@@ -76330,13 +76354,13 @@
         <v>2133</v>
       </c>
       <c r="E2134" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="F2134" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="G2134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2134" t="s">
         <v>4</v>
@@ -76359,13 +76383,13 @@
         <v>2134</v>
       </c>
       <c r="E2135" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="F2135" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="G2135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2135" t="s">
         <v>4</v>
@@ -76388,13 +76412,13 @@
         <v>2135</v>
       </c>
       <c r="E2136" t="s">
-        <v>967</v>
+        <v>4043</v>
       </c>
       <c r="F2136" t="s">
-        <v>968</v>
+        <v>4044</v>
       </c>
       <c r="G2136" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2136" t="s">
         <v>4</v>
@@ -76423,7 +76447,7 @@
         <v>4046</v>
       </c>
       <c r="G2137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2137" t="s">
         <v>4</v>
@@ -76504,13 +76528,13 @@
         <v>2139</v>
       </c>
       <c r="E2140" t="s">
-        <v>3941</v>
+        <v>4051</v>
       </c>
       <c r="F2140" t="s">
-        <v>3942</v>
+        <v>4052</v>
       </c>
       <c r="G2140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2140" t="s">
         <v>4</v>
@@ -76533,13 +76557,13 @@
         <v>2140</v>
       </c>
       <c r="E2141" t="s">
-        <v>4051</v>
+        <v>967</v>
       </c>
       <c r="F2141" t="s">
-        <v>4052</v>
+        <v>968</v>
       </c>
       <c r="G2141" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2141" t="s">
         <v>4</v>
@@ -76655,7 +76679,7 @@
         <v>4060</v>
       </c>
       <c r="G2145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2145" t="s">
         <v>4</v>
@@ -76771,7 +76795,7 @@
         <v>4068</v>
       </c>
       <c r="G2149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2149" t="s">
         <v>4</v>
@@ -76800,7 +76824,7 @@
         <v>4070</v>
       </c>
       <c r="G2150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2150" t="s">
         <v>4</v>
@@ -76910,13 +76934,13 @@
         <v>2153</v>
       </c>
       <c r="E2154" t="s">
-        <v>4075</v>
+        <v>4077</v>
       </c>
       <c r="F2154" t="s">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="G2154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2154" t="s">
         <v>4</v>
@@ -76939,13 +76963,13 @@
         <v>2154</v>
       </c>
       <c r="E2155" t="s">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="F2155" t="s">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="G2155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2155" t="s">
         <v>4</v>
@@ -76968,13 +76992,13 @@
         <v>2155</v>
       </c>
       <c r="E2156" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="F2156" t="s">
-        <v>4080</v>
+        <v>4082</v>
       </c>
       <c r="G2156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2156" t="s">
         <v>4</v>
@@ -76997,10 +77021,10 @@
         <v>2156</v>
       </c>
       <c r="E2157" t="s">
-        <v>4081</v>
+        <v>4083</v>
       </c>
       <c r="F2157" t="s">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="G2157" t="n">
         <v>1</v>
@@ -77026,10 +77050,10 @@
         <v>2157</v>
       </c>
       <c r="E2158" t="s">
-        <v>4083</v>
+        <v>4085</v>
       </c>
       <c r="F2158" t="s">
-        <v>4084</v>
+        <v>4086</v>
       </c>
       <c r="G2158" t="n">
         <v>1</v>
@@ -77119,7 +77143,7 @@
         <v>4090</v>
       </c>
       <c r="G2161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2161" t="s">
         <v>4</v>
@@ -77496,7 +77520,7 @@
         <v>4116</v>
       </c>
       <c r="G2174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2174" t="s">
         <v>4</v>
@@ -77641,7 +77665,7 @@
         <v>4126</v>
       </c>
       <c r="G2179" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2179" t="s">
         <v>4</v>
@@ -77664,13 +77688,13 @@
         <v>2179</v>
       </c>
       <c r="E2180" t="s">
-        <v>3985</v>
+        <v>4127</v>
       </c>
       <c r="F2180" t="s">
-        <v>3986</v>
+        <v>4128</v>
       </c>
       <c r="G2180" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2180" t="s">
         <v>4</v>
@@ -77693,10 +77717,10 @@
         <v>2180</v>
       </c>
       <c r="E2181" t="s">
-        <v>4127</v>
+        <v>4129</v>
       </c>
       <c r="F2181" t="s">
-        <v>4128</v>
+        <v>4130</v>
       </c>
       <c r="G2181" t="n">
         <v>1</v>
@@ -77722,10 +77746,10 @@
         <v>2181</v>
       </c>
       <c r="E2182" t="s">
-        <v>4129</v>
+        <v>4131</v>
       </c>
       <c r="F2182" t="s">
-        <v>4130</v>
+        <v>4132</v>
       </c>
       <c r="G2182" t="n">
         <v>1</v>
@@ -77751,13 +77775,13 @@
         <v>2182</v>
       </c>
       <c r="E2183" t="s">
-        <v>4131</v>
+        <v>4133</v>
       </c>
       <c r="F2183" t="s">
-        <v>4132</v>
+        <v>4134</v>
       </c>
       <c r="G2183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2183" t="s">
         <v>4</v>
@@ -77780,10 +77804,10 @@
         <v>2183</v>
       </c>
       <c r="E2184" t="s">
-        <v>4133</v>
+        <v>4135</v>
       </c>
       <c r="F2184" t="s">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="G2184" t="n">
         <v>1</v>
@@ -77809,13 +77833,13 @@
         <v>2184</v>
       </c>
       <c r="E2185" t="s">
-        <v>4135</v>
+        <v>3991</v>
       </c>
       <c r="F2185" t="s">
-        <v>4136</v>
+        <v>3992</v>
       </c>
       <c r="G2185" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2185" t="s">
         <v>4</v>
@@ -77896,13 +77920,13 @@
         <v>2187</v>
       </c>
       <c r="E2188" t="s">
-        <v>129</v>
+        <v>4141</v>
       </c>
       <c r="F2188" t="s">
-        <v>130</v>
+        <v>4142</v>
       </c>
       <c r="G2188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2188" t="s">
         <v>4</v>
@@ -77925,13 +77949,13 @@
         <v>2188</v>
       </c>
       <c r="E2189" t="s">
-        <v>4079</v>
+        <v>4143</v>
       </c>
       <c r="F2189" t="s">
-        <v>4080</v>
+        <v>4144</v>
       </c>
       <c r="G2189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2189" t="s">
         <v>4</v>
@@ -77954,13 +77978,13 @@
         <v>2189</v>
       </c>
       <c r="E2190" t="s">
-        <v>4141</v>
+        <v>4145</v>
       </c>
       <c r="F2190" t="s">
-        <v>4142</v>
+        <v>4146</v>
       </c>
       <c r="G2190" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2190" t="s">
         <v>4</v>
@@ -77983,10 +78007,10 @@
         <v>2190</v>
       </c>
       <c r="E2191" t="s">
-        <v>4143</v>
+        <v>4147</v>
       </c>
       <c r="F2191" t="s">
-        <v>4144</v>
+        <v>4148</v>
       </c>
       <c r="G2191" t="n">
         <v>1</v>
@@ -78012,13 +78036,13 @@
         <v>2191</v>
       </c>
       <c r="E2192" t="s">
-        <v>909</v>
+        <v>4149</v>
       </c>
       <c r="F2192" t="s">
-        <v>910</v>
+        <v>4150</v>
       </c>
       <c r="G2192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2192" t="s">
         <v>4</v>
@@ -78041,13 +78065,13 @@
         <v>2192</v>
       </c>
       <c r="E2193" t="s">
-        <v>4145</v>
+        <v>129</v>
       </c>
       <c r="F2193" t="s">
-        <v>4146</v>
+        <v>130</v>
       </c>
       <c r="G2193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2193" t="s">
         <v>4</v>
@@ -78070,13 +78094,13 @@
         <v>2193</v>
       </c>
       <c r="E2194" t="s">
-        <v>4147</v>
+        <v>4089</v>
       </c>
       <c r="F2194" t="s">
-        <v>4148</v>
+        <v>4090</v>
       </c>
       <c r="G2194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2194" t="s">
         <v>4</v>
@@ -78099,10 +78123,10 @@
         <v>2194</v>
       </c>
       <c r="E2195" t="s">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="F2195" t="s">
-        <v>4150</v>
+        <v>4152</v>
       </c>
       <c r="G2195" t="n">
         <v>1</v>
@@ -78128,13 +78152,13 @@
         <v>2195</v>
       </c>
       <c r="E2196" t="s">
-        <v>4151</v>
+        <v>4153</v>
       </c>
       <c r="F2196" t="s">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="G2196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2196" t="s">
         <v>4</v>
@@ -78157,10 +78181,10 @@
         <v>2196</v>
       </c>
       <c r="E2197" t="s">
-        <v>3985</v>
+        <v>909</v>
       </c>
       <c r="F2197" t="s">
-        <v>3986</v>
+        <v>910</v>
       </c>
       <c r="G2197" t="n">
         <v>2</v>
@@ -78186,13 +78210,13 @@
         <v>2197</v>
       </c>
       <c r="E2198" t="s">
-        <v>4153</v>
+        <v>4155</v>
       </c>
       <c r="F2198" t="s">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="G2198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2198" t="s">
         <v>4</v>
@@ -78215,13 +78239,13 @@
         <v>2198</v>
       </c>
       <c r="E2199" t="s">
-        <v>3981</v>
+        <v>4157</v>
       </c>
       <c r="F2199" t="s">
-        <v>3982</v>
+        <v>4158</v>
       </c>
       <c r="G2199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2199" t="s">
         <v>4</v>
@@ -78244,13 +78268,13 @@
         <v>2199</v>
       </c>
       <c r="E2200" t="s">
-        <v>4135</v>
+        <v>4159</v>
       </c>
       <c r="F2200" t="s">
-        <v>4136</v>
+        <v>4160</v>
       </c>
       <c r="G2200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2200" t="s">
         <v>4</v>
@@ -78273,13 +78297,13 @@
         <v>2200</v>
       </c>
       <c r="E2201" t="s">
-        <v>4131</v>
+        <v>4161</v>
       </c>
       <c r="F2201" t="s">
-        <v>4132</v>
+        <v>4162</v>
       </c>
       <c r="G2201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2201" t="s">
         <v>4</v>
@@ -78302,13 +78326,13 @@
         <v>2201</v>
       </c>
       <c r="E2202" t="s">
-        <v>4155</v>
+        <v>3991</v>
       </c>
       <c r="F2202" t="s">
-        <v>4156</v>
+        <v>3992</v>
       </c>
       <c r="G2202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2202" t="s">
         <v>4</v>
@@ -78331,13 +78355,13 @@
         <v>2202</v>
       </c>
       <c r="E2203" t="s">
-        <v>121</v>
+        <v>4163</v>
       </c>
       <c r="F2203" t="s">
-        <v>122</v>
+        <v>4164</v>
       </c>
       <c r="G2203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2203" t="s">
         <v>4</v>
@@ -78360,13 +78384,13 @@
         <v>2203</v>
       </c>
       <c r="E2204" t="s">
-        <v>4157</v>
+        <v>3987</v>
       </c>
       <c r="F2204" t="s">
-        <v>4158</v>
+        <v>3988</v>
       </c>
       <c r="G2204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2204" t="s">
         <v>4</v>
@@ -78389,10 +78413,10 @@
         <v>2204</v>
       </c>
       <c r="E2205" t="s">
-        <v>4159</v>
+        <v>4145</v>
       </c>
       <c r="F2205" t="s">
-        <v>4160</v>
+        <v>4146</v>
       </c>
       <c r="G2205" t="n">
         <v>2</v>
@@ -78418,10 +78442,10 @@
         <v>2205</v>
       </c>
       <c r="E2206" t="s">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="F2206" t="s">
-        <v>4162</v>
+        <v>4142</v>
       </c>
       <c r="G2206" t="n">
         <v>2</v>
@@ -78447,13 +78471,13 @@
         <v>2206</v>
       </c>
       <c r="E2207" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="F2207" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="G2207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2207" t="s">
         <v>4</v>
@@ -78476,10 +78500,10 @@
         <v>2207</v>
       </c>
       <c r="E2208" t="s">
-        <v>4165</v>
+        <v>121</v>
       </c>
       <c r="F2208" t="s">
-        <v>4166</v>
+        <v>122</v>
       </c>
       <c r="G2208" t="n">
         <v>1</v>
@@ -78511,7 +78535,7 @@
         <v>4168</v>
       </c>
       <c r="G2209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2209" t="s">
         <v>4</v>
@@ -78540,7 +78564,7 @@
         <v>4170</v>
       </c>
       <c r="G2210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2210" t="s">
         <v>4</v>
@@ -78569,7 +78593,7 @@
         <v>4172</v>
       </c>
       <c r="G2211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2211" t="s">
         <v>4</v>
@@ -78592,13 +78616,13 @@
         <v>2211</v>
       </c>
       <c r="E2212" t="s">
-        <v>4001</v>
+        <v>4173</v>
       </c>
       <c r="F2212" t="s">
-        <v>4002</v>
+        <v>4174</v>
       </c>
       <c r="G2212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2212" t="s">
         <v>4</v>
@@ -78621,13 +78645,13 @@
         <v>2212</v>
       </c>
       <c r="E2213" t="s">
-        <v>4173</v>
+        <v>4175</v>
       </c>
       <c r="F2213" t="s">
-        <v>4174</v>
+        <v>4176</v>
       </c>
       <c r="G2213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2213" t="s">
         <v>4</v>
@@ -78650,13 +78674,13 @@
         <v>2213</v>
       </c>
       <c r="E2214" t="s">
-        <v>4175</v>
+        <v>4177</v>
       </c>
       <c r="F2214" t="s">
-        <v>4176</v>
+        <v>4178</v>
       </c>
       <c r="G2214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2214" t="s">
         <v>4</v>
@@ -78679,13 +78703,13 @@
         <v>2214</v>
       </c>
       <c r="E2215" t="s">
-        <v>4175</v>
+        <v>4179</v>
       </c>
       <c r="F2215" t="s">
-        <v>4176</v>
+        <v>4180</v>
       </c>
       <c r="G2215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2215" t="s">
         <v>4</v>
@@ -78708,13 +78732,13 @@
         <v>2215</v>
       </c>
       <c r="E2216" t="s">
-        <v>4177</v>
+        <v>4181</v>
       </c>
       <c r="F2216" t="s">
-        <v>4178</v>
+        <v>4182</v>
       </c>
       <c r="G2216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2216" t="s">
         <v>4</v>
@@ -78737,13 +78761,13 @@
         <v>2216</v>
       </c>
       <c r="E2217" t="s">
-        <v>4179</v>
+        <v>4007</v>
       </c>
       <c r="F2217" t="s">
-        <v>4180</v>
+        <v>4008</v>
       </c>
       <c r="G2217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2217" t="s">
         <v>4</v>
@@ -78766,10 +78790,10 @@
         <v>2217</v>
       </c>
       <c r="E2218" t="s">
-        <v>2205</v>
+        <v>4183</v>
       </c>
       <c r="F2218" t="s">
-        <v>2206</v>
+        <v>4184</v>
       </c>
       <c r="G2218" t="n">
         <v>2</v>
@@ -78795,10 +78819,10 @@
         <v>2218</v>
       </c>
       <c r="E2219" t="s">
-        <v>4181</v>
+        <v>4185</v>
       </c>
       <c r="F2219" t="s">
-        <v>4182</v>
+        <v>4186</v>
       </c>
       <c r="G2219" t="n">
         <v>2</v>
@@ -78824,10 +78848,10 @@
         <v>2219</v>
       </c>
       <c r="E2220" t="s">
-        <v>4183</v>
+        <v>4185</v>
       </c>
       <c r="F2220" t="s">
-        <v>4184</v>
+        <v>4186</v>
       </c>
       <c r="G2220" t="n">
         <v>2</v>
@@ -78853,10 +78877,10 @@
         <v>2220</v>
       </c>
       <c r="E2221" t="s">
-        <v>4185</v>
+        <v>4187</v>
       </c>
       <c r="F2221" t="s">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="G2221" t="n">
         <v>1</v>
@@ -78882,13 +78906,13 @@
         <v>2221</v>
       </c>
       <c r="E2222" t="s">
-        <v>4187</v>
+        <v>4189</v>
       </c>
       <c r="F2222" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
       <c r="G2222" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2222" t="s">
         <v>4</v>
@@ -78911,13 +78935,13 @@
         <v>2222</v>
       </c>
       <c r="E2223" t="s">
-        <v>4189</v>
+        <v>2205</v>
       </c>
       <c r="F2223" t="s">
-        <v>4190</v>
+        <v>2206</v>
       </c>
       <c r="G2223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2223" t="s">
         <v>4</v>
@@ -78946,7 +78970,7 @@
         <v>4192</v>
       </c>
       <c r="G2224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2224" t="s">
         <v>4</v>
@@ -78975,7 +78999,7 @@
         <v>4194</v>
       </c>
       <c r="G2225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2225" t="s">
         <v>4</v>
@@ -78998,13 +79022,13 @@
         <v>2225</v>
       </c>
       <c r="E2226" t="s">
-        <v>4013</v>
+        <v>4195</v>
       </c>
       <c r="F2226" t="s">
-        <v>4014</v>
+        <v>4196</v>
       </c>
       <c r="G2226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2226" t="s">
         <v>4</v>
@@ -79027,13 +79051,13 @@
         <v>2226</v>
       </c>
       <c r="E2227" t="s">
-        <v>4013</v>
+        <v>4197</v>
       </c>
       <c r="F2227" t="s">
-        <v>4014</v>
+        <v>4198</v>
       </c>
       <c r="G2227" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2227" t="s">
         <v>4</v>
@@ -79056,10 +79080,10 @@
         <v>2227</v>
       </c>
       <c r="E2228" t="s">
-        <v>4175</v>
+        <v>4199</v>
       </c>
       <c r="F2228" t="s">
-        <v>4176</v>
+        <v>4200</v>
       </c>
       <c r="G2228" t="n">
         <v>1</v>
@@ -79085,10 +79109,10 @@
         <v>2228</v>
       </c>
       <c r="E2229" t="s">
-        <v>4175</v>
+        <v>4201</v>
       </c>
       <c r="F2229" t="s">
-        <v>4176</v>
+        <v>4202</v>
       </c>
       <c r="G2229" t="n">
         <v>1</v>
@@ -79114,10 +79138,10 @@
         <v>2229</v>
       </c>
       <c r="E2230" t="s">
-        <v>4195</v>
+        <v>4203</v>
       </c>
       <c r="F2230" t="s">
-        <v>4196</v>
+        <v>4204</v>
       </c>
       <c r="G2230" t="n">
         <v>1</v>
@@ -79143,13 +79167,13 @@
         <v>2230</v>
       </c>
       <c r="E2231" t="s">
-        <v>4179</v>
+        <v>4019</v>
       </c>
       <c r="F2231" t="s">
-        <v>4180</v>
+        <v>4020</v>
       </c>
       <c r="G2231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2231" t="s">
         <v>4</v>
@@ -79172,10 +79196,10 @@
         <v>2231</v>
       </c>
       <c r="E2232" t="s">
-        <v>2205</v>
+        <v>4019</v>
       </c>
       <c r="F2232" t="s">
-        <v>2206</v>
+        <v>4020</v>
       </c>
       <c r="G2232" t="n">
         <v>1</v>
@@ -79201,10 +79225,10 @@
         <v>2232</v>
       </c>
       <c r="E2233" t="s">
-        <v>4197</v>
+        <v>4185</v>
       </c>
       <c r="F2233" t="s">
-        <v>4198</v>
+        <v>4186</v>
       </c>
       <c r="G2233" t="n">
         <v>1</v>
@@ -79230,10 +79254,10 @@
         <v>2233</v>
       </c>
       <c r="E2234" t="s">
-        <v>4181</v>
+        <v>4185</v>
       </c>
       <c r="F2234" t="s">
-        <v>4182</v>
+        <v>4186</v>
       </c>
       <c r="G2234" t="n">
         <v>1</v>
@@ -79259,10 +79283,10 @@
         <v>2234</v>
       </c>
       <c r="E2235" t="s">
-        <v>4183</v>
+        <v>4205</v>
       </c>
       <c r="F2235" t="s">
-        <v>4184</v>
+        <v>4206</v>
       </c>
       <c r="G2235" t="n">
         <v>1</v>
@@ -79288,10 +79312,10 @@
         <v>2235</v>
       </c>
       <c r="E2236" t="s">
-        <v>3985</v>
+        <v>4189</v>
       </c>
       <c r="F2236" t="s">
-        <v>3986</v>
+        <v>4190</v>
       </c>
       <c r="G2236" t="n">
         <v>1</v>
@@ -79317,10 +79341,10 @@
         <v>2236</v>
       </c>
       <c r="E2237" t="s">
-        <v>3983</v>
+        <v>2205</v>
       </c>
       <c r="F2237" t="s">
-        <v>3984</v>
+        <v>2206</v>
       </c>
       <c r="G2237" t="n">
         <v>1</v>
@@ -79346,10 +79370,10 @@
         <v>2237</v>
       </c>
       <c r="E2238" t="s">
-        <v>3981</v>
+        <v>4207</v>
       </c>
       <c r="F2238" t="s">
-        <v>3982</v>
+        <v>4208</v>
       </c>
       <c r="G2238" t="n">
         <v>1</v>
@@ -79375,10 +79399,10 @@
         <v>2238</v>
       </c>
       <c r="E2239" t="s">
-        <v>4135</v>
+        <v>4191</v>
       </c>
       <c r="F2239" t="s">
-        <v>4136</v>
+        <v>4192</v>
       </c>
       <c r="G2239" t="n">
         <v>1</v>
@@ -79404,10 +79428,10 @@
         <v>2239</v>
       </c>
       <c r="E2240" t="s">
-        <v>4131</v>
+        <v>4193</v>
       </c>
       <c r="F2240" t="s">
-        <v>4132</v>
+        <v>4194</v>
       </c>
       <c r="G2240" t="n">
         <v>1</v>
@@ -79433,10 +79457,10 @@
         <v>2240</v>
       </c>
       <c r="E2241" t="s">
-        <v>909</v>
+        <v>3991</v>
       </c>
       <c r="F2241" t="s">
-        <v>910</v>
+        <v>3992</v>
       </c>
       <c r="G2241" t="n">
         <v>1</v>
@@ -79462,10 +79486,10 @@
         <v>2241</v>
       </c>
       <c r="E2242" t="s">
-        <v>4079</v>
+        <v>3989</v>
       </c>
       <c r="F2242" t="s">
-        <v>4080</v>
+        <v>3990</v>
       </c>
       <c r="G2242" t="n">
         <v>1</v>
@@ -79491,10 +79515,10 @@
         <v>2242</v>
       </c>
       <c r="E2243" t="s">
-        <v>4199</v>
+        <v>3987</v>
       </c>
       <c r="F2243" t="s">
-        <v>4200</v>
+        <v>3988</v>
       </c>
       <c r="G2243" t="n">
         <v>1</v>
@@ -79520,10 +79544,10 @@
         <v>2243</v>
       </c>
       <c r="E2244" t="s">
-        <v>4159</v>
+        <v>4145</v>
       </c>
       <c r="F2244" t="s">
-        <v>4160</v>
+        <v>4146</v>
       </c>
       <c r="G2244" t="n">
         <v>1</v>
@@ -79549,10 +79573,10 @@
         <v>2244</v>
       </c>
       <c r="E2245" t="s">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="F2245" t="s">
-        <v>4162</v>
+        <v>4142</v>
       </c>
       <c r="G2245" t="n">
         <v>1</v>
@@ -79578,10 +79602,10 @@
         <v>2245</v>
       </c>
       <c r="E2246" t="s">
-        <v>4163</v>
+        <v>909</v>
       </c>
       <c r="F2246" t="s">
-        <v>4164</v>
+        <v>910</v>
       </c>
       <c r="G2246" t="n">
         <v>1</v>
@@ -79607,13 +79631,13 @@
         <v>2246</v>
       </c>
       <c r="E2247" t="s">
-        <v>4201</v>
+        <v>4089</v>
       </c>
       <c r="F2247" t="s">
-        <v>4202</v>
+        <v>4090</v>
       </c>
       <c r="G2247" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2247" t="s">
         <v>4</v>
@@ -79636,13 +79660,13 @@
         <v>2247</v>
       </c>
       <c r="E2248" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="F2248" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
       <c r="G2248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2248" t="s">
         <v>4</v>
@@ -79665,13 +79689,13 @@
         <v>2248</v>
       </c>
       <c r="E2249" t="s">
-        <v>4205</v>
+        <v>4169</v>
       </c>
       <c r="F2249" t="s">
-        <v>4206</v>
+        <v>4170</v>
       </c>
       <c r="G2249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2249" t="s">
         <v>4</v>
@@ -79694,10 +79718,10 @@
         <v>2249</v>
       </c>
       <c r="E2250" t="s">
-        <v>4207</v>
+        <v>4171</v>
       </c>
       <c r="F2250" t="s">
-        <v>4208</v>
+        <v>4172</v>
       </c>
       <c r="G2250" t="n">
         <v>1</v>
@@ -79723,10 +79747,10 @@
         <v>2250</v>
       </c>
       <c r="E2251" t="s">
-        <v>4209</v>
+        <v>4173</v>
       </c>
       <c r="F2251" t="s">
-        <v>4210</v>
+        <v>4174</v>
       </c>
       <c r="G2251" t="n">
         <v>1</v>
@@ -79758,7 +79782,7 @@
         <v>4212</v>
       </c>
       <c r="G2252" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2252" t="s">
         <v>4</v>
@@ -79787,7 +79811,7 @@
         <v>4214</v>
       </c>
       <c r="G2253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2253" t="s">
         <v>4</v>
@@ -79816,7 +79840,7 @@
         <v>4216</v>
       </c>
       <c r="G2254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2254" t="s">
         <v>4</v>
@@ -79868,13 +79892,13 @@
         <v>2255</v>
       </c>
       <c r="E2256" t="s">
-        <v>1269</v>
+        <v>4219</v>
       </c>
       <c r="F2256" t="s">
-        <v>1270</v>
+        <v>4220</v>
       </c>
       <c r="G2256" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2256" t="s">
         <v>4</v>
@@ -79897,10 +79921,10 @@
         <v>2256</v>
       </c>
       <c r="E2257" t="s">
-        <v>4219</v>
+        <v>4221</v>
       </c>
       <c r="F2257" t="s">
-        <v>4220</v>
+        <v>4222</v>
       </c>
       <c r="G2257" t="n">
         <v>1</v>
@@ -79926,10 +79950,10 @@
         <v>2257</v>
       </c>
       <c r="E2258" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="F2258" t="s">
-        <v>4222</v>
+        <v>4224</v>
       </c>
       <c r="G2258" t="n">
         <v>1</v>
@@ -79955,10 +79979,10 @@
         <v>2258</v>
       </c>
       <c r="E2259" t="s">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="F2259" t="s">
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="G2259" t="n">
         <v>1</v>
@@ -79984,10 +80008,10 @@
         <v>2259</v>
       </c>
       <c r="E2260" t="s">
-        <v>4225</v>
+        <v>4227</v>
       </c>
       <c r="F2260" t="s">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="G2260" t="n">
         <v>1</v>
@@ -80013,13 +80037,13 @@
         <v>2260</v>
       </c>
       <c r="E2261" t="s">
-        <v>4227</v>
+        <v>1269</v>
       </c>
       <c r="F2261" t="s">
-        <v>4228</v>
+        <v>1270</v>
       </c>
       <c r="G2261" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2261" t="s">
         <v>4</v>
@@ -80106,7 +80130,7 @@
         <v>4234</v>
       </c>
       <c r="G2264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2264" t="s">
         <v>4</v>
@@ -80135,7 +80159,7 @@
         <v>4236</v>
       </c>
       <c r="G2265" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2265" t="s">
         <v>4</v>
@@ -80164,7 +80188,7 @@
         <v>4238</v>
       </c>
       <c r="G2266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2266" t="s">
         <v>4</v>
@@ -80193,7 +80217,7 @@
         <v>4240</v>
       </c>
       <c r="G2267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2267" t="s">
         <v>4</v>
@@ -80216,10 +80240,10 @@
         <v>2267</v>
       </c>
       <c r="E2268" t="s">
-        <v>4201</v>
+        <v>4241</v>
       </c>
       <c r="F2268" t="s">
-        <v>4202</v>
+        <v>4242</v>
       </c>
       <c r="G2268" t="n">
         <v>1</v>
@@ -80245,10 +80269,10 @@
         <v>2268</v>
       </c>
       <c r="E2269" t="s">
-        <v>4241</v>
+        <v>4243</v>
       </c>
       <c r="F2269" t="s">
-        <v>4242</v>
+        <v>4244</v>
       </c>
       <c r="G2269" t="n">
         <v>3</v>
@@ -80274,13 +80298,13 @@
         <v>2269</v>
       </c>
       <c r="E2270" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="F2270" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="G2270" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2270" t="s">
         <v>4</v>
@@ -80303,10 +80327,10 @@
         <v>2270</v>
       </c>
       <c r="E2271" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="F2271" t="s">
-        <v>4246</v>
+        <v>4248</v>
       </c>
       <c r="G2271" t="n">
         <v>2</v>
@@ -80332,13 +80356,13 @@
         <v>2271</v>
       </c>
       <c r="E2272" t="s">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="F2272" t="s">
-        <v>4248</v>
+        <v>4250</v>
       </c>
       <c r="G2272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2272" t="s">
         <v>4</v>
@@ -80361,10 +80385,10 @@
         <v>2272</v>
       </c>
       <c r="E2273" t="s">
-        <v>4249</v>
+        <v>4211</v>
       </c>
       <c r="F2273" t="s">
-        <v>4250</v>
+        <v>4212</v>
       </c>
       <c r="G2273" t="n">
         <v>1</v>
@@ -80390,13 +80414,13 @@
         <v>2273</v>
       </c>
       <c r="E2274" t="s">
-        <v>4205</v>
+        <v>4251</v>
       </c>
       <c r="F2274" t="s">
-        <v>4206</v>
+        <v>4252</v>
       </c>
       <c r="G2274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2274" t="s">
         <v>4</v>
@@ -80419,10 +80443,10 @@
         <v>2274</v>
       </c>
       <c r="E2275" t="s">
-        <v>1271</v>
+        <v>4253</v>
       </c>
       <c r="F2275" t="s">
-        <v>1272</v>
+        <v>4254</v>
       </c>
       <c r="G2275" t="n">
         <v>1</v>
@@ -80448,13 +80472,13 @@
         <v>2275</v>
       </c>
       <c r="E2276" t="s">
-        <v>4251</v>
+        <v>4255</v>
       </c>
       <c r="F2276" t="s">
-        <v>4252</v>
+        <v>4256</v>
       </c>
       <c r="G2276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2276" t="s">
         <v>4</v>
@@ -80477,13 +80501,13 @@
         <v>2276</v>
       </c>
       <c r="E2277" t="s">
-        <v>4253</v>
+        <v>4257</v>
       </c>
       <c r="F2277" t="s">
-        <v>4254</v>
+        <v>4258</v>
       </c>
       <c r="G2277" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2277" t="s">
         <v>4</v>
@@ -80506,13 +80530,13 @@
         <v>2277</v>
       </c>
       <c r="E2278" t="s">
-        <v>4255</v>
+        <v>4259</v>
       </c>
       <c r="F2278" t="s">
-        <v>4256</v>
+        <v>4260</v>
       </c>
       <c r="G2278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2278" t="s">
         <v>4</v>
@@ -80535,13 +80559,13 @@
         <v>2278</v>
       </c>
       <c r="E2279" t="s">
-        <v>4257</v>
+        <v>4215</v>
       </c>
       <c r="F2279" t="s">
-        <v>4258</v>
+        <v>4216</v>
       </c>
       <c r="G2279" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2279" t="s">
         <v>4</v>
@@ -80564,13 +80588,13 @@
         <v>2279</v>
       </c>
       <c r="E2280" t="s">
-        <v>4259</v>
+        <v>1271</v>
       </c>
       <c r="F2280" t="s">
-        <v>4260</v>
+        <v>1272</v>
       </c>
       <c r="G2280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2280" t="s">
         <v>4</v>
@@ -80628,7 +80652,7 @@
         <v>4264</v>
       </c>
       <c r="G2282" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2282" t="s">
         <v>4</v>
@@ -80657,7 +80681,7 @@
         <v>4266</v>
       </c>
       <c r="G2283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2283" t="s">
         <v>4</v>
@@ -80686,7 +80710,7 @@
         <v>4268</v>
       </c>
       <c r="G2284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2284" t="s">
         <v>4</v>
@@ -80715,7 +80739,7 @@
         <v>4270</v>
       </c>
       <c r="G2285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2285" t="s">
         <v>4</v>
@@ -80744,7 +80768,7 @@
         <v>4272</v>
       </c>
       <c r="G2286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2286" t="s">
         <v>4</v>
@@ -80773,7 +80797,7 @@
         <v>4274</v>
       </c>
       <c r="G2287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2287" t="s">
         <v>4</v>
@@ -80802,7 +80826,7 @@
         <v>4276</v>
       </c>
       <c r="G2288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2288" t="s">
         <v>4</v>
@@ -80831,7 +80855,7 @@
         <v>4278</v>
       </c>
       <c r="G2289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2289" t="s">
         <v>4</v>
@@ -80854,10 +80878,10 @@
         <v>2289</v>
       </c>
       <c r="E2290" t="s">
-        <v>4171</v>
+        <v>4279</v>
       </c>
       <c r="F2290" t="s">
-        <v>4172</v>
+        <v>4280</v>
       </c>
       <c r="G2290" t="n">
         <v>3</v>
@@ -80883,13 +80907,13 @@
         <v>2290</v>
       </c>
       <c r="E2291" t="s">
-        <v>4279</v>
+        <v>4281</v>
       </c>
       <c r="F2291" t="s">
-        <v>4280</v>
+        <v>4282</v>
       </c>
       <c r="G2291" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2291" t="s">
         <v>4</v>
@@ -80912,13 +80936,13 @@
         <v>2291</v>
       </c>
       <c r="E2292" t="s">
-        <v>3983</v>
+        <v>4283</v>
       </c>
       <c r="F2292" t="s">
-        <v>3984</v>
+        <v>4284</v>
       </c>
       <c r="G2292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2292" t="s">
         <v>4</v>
@@ -80941,13 +80965,13 @@
         <v>2292</v>
       </c>
       <c r="E2293" t="s">
-        <v>4179</v>
+        <v>4285</v>
       </c>
       <c r="F2293" t="s">
-        <v>4180</v>
+        <v>4286</v>
       </c>
       <c r="G2293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2293" t="s">
         <v>4</v>
@@ -80970,13 +80994,13 @@
         <v>2293</v>
       </c>
       <c r="E2294" t="s">
-        <v>4189</v>
+        <v>4287</v>
       </c>
       <c r="F2294" t="s">
-        <v>4190</v>
+        <v>4288</v>
       </c>
       <c r="G2294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2294" t="s">
         <v>4</v>
@@ -80999,10 +81023,10 @@
         <v>2294</v>
       </c>
       <c r="E2295" t="s">
-        <v>4281</v>
+        <v>4181</v>
       </c>
       <c r="F2295" t="s">
-        <v>4282</v>
+        <v>4182</v>
       </c>
       <c r="G2295" t="n">
         <v>3</v>
@@ -81028,13 +81052,13 @@
         <v>2295</v>
       </c>
       <c r="E2296" t="s">
-        <v>4283</v>
+        <v>4289</v>
       </c>
       <c r="F2296" t="s">
-        <v>4284</v>
+        <v>4290</v>
       </c>
       <c r="G2296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2296" t="s">
         <v>4</v>
@@ -81057,13 +81081,13 @@
         <v>2296</v>
       </c>
       <c r="E2297" t="s">
-        <v>4285</v>
+        <v>3989</v>
       </c>
       <c r="F2297" t="s">
-        <v>4286</v>
+        <v>3990</v>
       </c>
       <c r="G2297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2297" t="s">
         <v>4</v>
@@ -81086,13 +81110,13 @@
         <v>2297</v>
       </c>
       <c r="E2298" t="s">
-        <v>4287</v>
+        <v>4189</v>
       </c>
       <c r="F2298" t="s">
-        <v>4288</v>
+        <v>4190</v>
       </c>
       <c r="G2298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2298" t="s">
         <v>4</v>
@@ -81115,13 +81139,13 @@
         <v>2298</v>
       </c>
       <c r="E2299" t="s">
-        <v>4289</v>
+        <v>4199</v>
       </c>
       <c r="F2299" t="s">
-        <v>4290</v>
+        <v>4200</v>
       </c>
       <c r="G2299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2299" t="s">
         <v>4</v>
@@ -81150,7 +81174,7 @@
         <v>4292</v>
       </c>
       <c r="G2300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2300" t="s">
         <v>4</v>
@@ -81237,7 +81261,7 @@
         <v>4298</v>
       </c>
       <c r="G2303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2303" t="s">
         <v>4</v>
@@ -81266,7 +81290,7 @@
         <v>4300</v>
       </c>
       <c r="G2304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2304" t="s">
         <v>4</v>
@@ -81295,7 +81319,7 @@
         <v>4302</v>
       </c>
       <c r="G2305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2305" t="s">
         <v>4</v>
@@ -81353,7 +81377,7 @@
         <v>4306</v>
       </c>
       <c r="G2307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2307" t="s">
         <v>4</v>
@@ -81382,7 +81406,7 @@
         <v>4308</v>
       </c>
       <c r="G2308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2308" t="s">
         <v>4</v>
@@ -81440,7 +81464,7 @@
         <v>4312</v>
       </c>
       <c r="G2310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2310" t="s">
         <v>4</v>
@@ -81463,10 +81487,10 @@
         <v>2310</v>
       </c>
       <c r="E2311" t="s">
-        <v>945</v>
+        <v>4313</v>
       </c>
       <c r="F2311" t="s">
-        <v>946</v>
+        <v>4314</v>
       </c>
       <c r="G2311" t="n">
         <v>1</v>
@@ -81492,13 +81516,13 @@
         <v>2311</v>
       </c>
       <c r="E2312" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="F2312" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="G2312" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2312" t="s">
         <v>4</v>
@@ -81521,10 +81545,10 @@
         <v>2312</v>
       </c>
       <c r="E2313" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="F2313" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="G2313" t="n">
         <v>1</v>
@@ -81550,13 +81574,13 @@
         <v>2313</v>
       </c>
       <c r="E2314" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="F2314" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="G2314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2314" t="s">
         <v>4</v>
@@ -81579,13 +81603,13 @@
         <v>2314</v>
       </c>
       <c r="E2315" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="F2315" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="G2315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2315" t="s">
         <v>4</v>
@@ -81608,10 +81632,10 @@
         <v>2315</v>
       </c>
       <c r="E2316" t="s">
-        <v>4321</v>
+        <v>945</v>
       </c>
       <c r="F2316" t="s">
-        <v>4322</v>
+        <v>946</v>
       </c>
       <c r="G2316" t="n">
         <v>1</v>
@@ -81643,7 +81667,7 @@
         <v>4324</v>
       </c>
       <c r="G2317" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2317" t="s">
         <v>4</v>
@@ -81730,7 +81754,7 @@
         <v>4330</v>
       </c>
       <c r="G2320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2320" t="s">
         <v>4</v>
@@ -81788,7 +81812,7 @@
         <v>4334</v>
       </c>
       <c r="G2322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2322" t="s">
         <v>4</v>
@@ -81898,13 +81922,13 @@
         <v>2325</v>
       </c>
       <c r="E2326" t="s">
-        <v>1335</v>
+        <v>4341</v>
       </c>
       <c r="F2326" t="s">
-        <v>1336</v>
+        <v>4342</v>
       </c>
       <c r="G2326" t="n">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="H2326" t="s">
         <v>4</v>
@@ -81927,13 +81951,13 @@
         <v>2326</v>
       </c>
       <c r="E2327" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="F2327" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="G2327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2327" t="s">
         <v>4</v>
@@ -81956,10 +81980,10 @@
         <v>2327</v>
       </c>
       <c r="E2328" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="F2328" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="G2328" t="n">
         <v>1</v>
@@ -81985,10 +82009,10 @@
         <v>2328</v>
       </c>
       <c r="E2329" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="F2329" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="G2329" t="n">
         <v>1</v>
@@ -82014,13 +82038,13 @@
         <v>2329</v>
       </c>
       <c r="E2330" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="F2330" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="G2330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2330" t="s">
         <v>4</v>
@@ -82043,13 +82067,13 @@
         <v>2330</v>
       </c>
       <c r="E2331" t="s">
-        <v>4349</v>
+        <v>1335</v>
       </c>
       <c r="F2331" t="s">
-        <v>4350</v>
+        <v>1336</v>
       </c>
       <c r="G2331" t="n">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="H2331" t="s">
         <v>4</v>
@@ -82165,7 +82189,7 @@
         <v>4358</v>
       </c>
       <c r="G2335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2335" t="s">
         <v>4</v>
@@ -82333,13 +82357,13 @@
         <v>2340</v>
       </c>
       <c r="E2341" t="s">
-        <v>195</v>
+        <v>4369</v>
       </c>
       <c r="F2341" t="s">
-        <v>196</v>
+        <v>4370</v>
       </c>
       <c r="G2341" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H2341" t="s">
         <v>4</v>
@@ -82362,13 +82386,13 @@
         <v>2341</v>
       </c>
       <c r="E2342" t="s">
-        <v>1277</v>
+        <v>4371</v>
       </c>
       <c r="F2342" t="s">
-        <v>1278</v>
+        <v>4372</v>
       </c>
       <c r="G2342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2342" t="s">
         <v>4</v>
@@ -82391,13 +82415,13 @@
         <v>2342</v>
       </c>
       <c r="E2343" t="s">
-        <v>4369</v>
+        <v>4373</v>
       </c>
       <c r="F2343" t="s">
-        <v>4370</v>
+        <v>4374</v>
       </c>
       <c r="G2343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2343" t="s">
         <v>4</v>
@@ -82420,10 +82444,10 @@
         <v>2343</v>
       </c>
       <c r="E2344" t="s">
-        <v>4371</v>
+        <v>4375</v>
       </c>
       <c r="F2344" t="s">
-        <v>4372</v>
+        <v>4376</v>
       </c>
       <c r="G2344" t="n">
         <v>1</v>
@@ -82449,13 +82473,13 @@
         <v>2344</v>
       </c>
       <c r="E2345" t="s">
-        <v>4373</v>
+        <v>4377</v>
       </c>
       <c r="F2345" t="s">
-        <v>4374</v>
+        <v>4378</v>
       </c>
       <c r="G2345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2345" t="s">
         <v>4</v>
@@ -82478,13 +82502,13 @@
         <v>2345</v>
       </c>
       <c r="E2346" t="s">
-        <v>4375</v>
+        <v>195</v>
       </c>
       <c r="F2346" t="s">
-        <v>4376</v>
+        <v>196</v>
       </c>
       <c r="G2346" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H2346" t="s">
         <v>4</v>
@@ -82507,13 +82531,13 @@
         <v>2346</v>
       </c>
       <c r="E2347" t="s">
-        <v>4377</v>
+        <v>1277</v>
       </c>
       <c r="F2347" t="s">
-        <v>4378</v>
+        <v>1278</v>
       </c>
       <c r="G2347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2347" t="s">
         <v>4</v>
@@ -82542,7 +82566,7 @@
         <v>4380</v>
       </c>
       <c r="G2348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2348" t="s">
         <v>4</v>
@@ -82571,7 +82595,7 @@
         <v>4382</v>
       </c>
       <c r="G2349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2349" t="s">
         <v>4</v>
@@ -82629,7 +82653,7 @@
         <v>4386</v>
       </c>
       <c r="G2351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2351" t="s">
         <v>4</v>
@@ -82658,7 +82682,7 @@
         <v>4388</v>
       </c>
       <c r="G2352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2352" t="s">
         <v>4</v>
@@ -82716,7 +82740,7 @@
         <v>4392</v>
       </c>
       <c r="G2354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2354" t="s">
         <v>4</v>
@@ -82803,7 +82827,7 @@
         <v>4398</v>
       </c>
       <c r="G2357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2357" t="s">
         <v>4</v>
@@ -82832,7 +82856,7 @@
         <v>4400</v>
       </c>
       <c r="G2358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2358" t="s">
         <v>4</v>
@@ -82890,7 +82914,7 @@
         <v>4404</v>
       </c>
       <c r="G2360" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2360" t="s">
         <v>4</v>
@@ -82942,10 +82966,10 @@
         <v>2361</v>
       </c>
       <c r="E2362" t="s">
-        <v>3995</v>
+        <v>4407</v>
       </c>
       <c r="F2362" t="s">
-        <v>3996</v>
+        <v>4408</v>
       </c>
       <c r="G2362" t="n">
         <v>2</v>
@@ -82971,10 +82995,10 @@
         <v>2362</v>
       </c>
       <c r="E2363" t="s">
-        <v>4407</v>
+        <v>4409</v>
       </c>
       <c r="F2363" t="s">
-        <v>4408</v>
+        <v>4410</v>
       </c>
       <c r="G2363" t="n">
         <v>3</v>
@@ -83000,10 +83024,10 @@
         <v>2363</v>
       </c>
       <c r="E2364" t="s">
-        <v>4409</v>
+        <v>4411</v>
       </c>
       <c r="F2364" t="s">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="G2364" t="n">
         <v>1</v>
@@ -83029,13 +83053,13 @@
         <v>2364</v>
       </c>
       <c r="E2365" t="s">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="F2365" t="s">
-        <v>4412</v>
+        <v>4414</v>
       </c>
       <c r="G2365" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2365" t="s">
         <v>4</v>
@@ -83058,10 +83082,10 @@
         <v>2365</v>
       </c>
       <c r="E2366" t="s">
-        <v>4413</v>
+        <v>4415</v>
       </c>
       <c r="F2366" t="s">
-        <v>4414</v>
+        <v>4416</v>
       </c>
       <c r="G2366" t="n">
         <v>1</v>
@@ -83087,13 +83111,13 @@
         <v>2366</v>
       </c>
       <c r="E2367" t="s">
-        <v>4415</v>
+        <v>4001</v>
       </c>
       <c r="F2367" t="s">
-        <v>4416</v>
+        <v>4002</v>
       </c>
       <c r="G2367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2367" t="s">
         <v>4</v>
@@ -83122,7 +83146,7 @@
         <v>4418</v>
       </c>
       <c r="G2368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2368" t="s">
         <v>4</v>
@@ -83151,7 +83175,7 @@
         <v>4420</v>
       </c>
       <c r="G2369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2369" t="s">
         <v>4</v>
@@ -83209,7 +83233,7 @@
         <v>4424</v>
       </c>
       <c r="G2371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2371" t="s">
         <v>4</v>
@@ -83267,7 +83291,7 @@
         <v>4428</v>
       </c>
       <c r="G2373" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2373" t="s">
         <v>4</v>
@@ -83296,7 +83320,7 @@
         <v>4430</v>
       </c>
       <c r="G2374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2374" t="s">
         <v>4</v>
@@ -83354,7 +83378,7 @@
         <v>4434</v>
       </c>
       <c r="G2376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2376" t="s">
         <v>4</v>
@@ -83377,10 +83401,10 @@
         <v>2376</v>
       </c>
       <c r="E2377" t="s">
-        <v>4267</v>
+        <v>4435</v>
       </c>
       <c r="F2377" t="s">
-        <v>4268</v>
+        <v>4436</v>
       </c>
       <c r="G2377" t="n">
         <v>1</v>
@@ -83406,13 +83430,13 @@
         <v>2377</v>
       </c>
       <c r="E2378" t="s">
-        <v>4435</v>
+        <v>4437</v>
       </c>
       <c r="F2378" t="s">
-        <v>4436</v>
+        <v>4438</v>
       </c>
       <c r="G2378" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2378" t="s">
         <v>4</v>
@@ -83435,10 +83459,10 @@
         <v>2378</v>
       </c>
       <c r="E2379" t="s">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="F2379" t="s">
-        <v>4438</v>
+        <v>4440</v>
       </c>
       <c r="G2379" t="n">
         <v>1</v>
@@ -83464,13 +83488,13 @@
         <v>2379</v>
       </c>
       <c r="E2380" t="s">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="F2380" t="s">
-        <v>4440</v>
+        <v>4442</v>
       </c>
       <c r="G2380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2380" t="s">
         <v>4</v>
@@ -83493,10 +83517,10 @@
         <v>2380</v>
       </c>
       <c r="E2381" t="s">
-        <v>4441</v>
+        <v>4443</v>
       </c>
       <c r="F2381" t="s">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="G2381" t="n">
         <v>1</v>
@@ -83522,10 +83546,10 @@
         <v>2381</v>
       </c>
       <c r="E2382" t="s">
-        <v>4443</v>
+        <v>4277</v>
       </c>
       <c r="F2382" t="s">
-        <v>4444</v>
+        <v>4278</v>
       </c>
       <c r="G2382" t="n">
         <v>1</v>
@@ -83551,13 +83575,13 @@
         <v>2382</v>
       </c>
       <c r="E2383" t="s">
-        <v>1997</v>
+        <v>4445</v>
       </c>
       <c r="F2383" t="s">
-        <v>1998</v>
+        <v>4446</v>
       </c>
       <c r="G2383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2383" t="s">
         <v>4</v>
@@ -83580,10 +83604,10 @@
         <v>2383</v>
       </c>
       <c r="E2384" t="s">
-        <v>4445</v>
+        <v>4447</v>
       </c>
       <c r="F2384" t="s">
-        <v>4446</v>
+        <v>4448</v>
       </c>
       <c r="G2384" t="n">
         <v>1</v>
@@ -83609,13 +83633,13 @@
         <v>2384</v>
       </c>
       <c r="E2385" t="s">
-        <v>4447</v>
+        <v>4449</v>
       </c>
       <c r="F2385" t="s">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="G2385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2385" t="s">
         <v>4</v>
@@ -83638,13 +83662,13 @@
         <v>2385</v>
       </c>
       <c r="E2386" t="s">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="F2386" t="s">
-        <v>4450</v>
+        <v>4452</v>
       </c>
       <c r="G2386" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2386" t="s">
         <v>4</v>
@@ -83667,10 +83691,10 @@
         <v>2386</v>
       </c>
       <c r="E2387" t="s">
-        <v>4451</v>
+        <v>4453</v>
       </c>
       <c r="F2387" t="s">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="G2387" t="n">
         <v>1</v>
@@ -83696,13 +83720,13 @@
         <v>2387</v>
       </c>
       <c r="E2388" t="s">
-        <v>4453</v>
+        <v>1997</v>
       </c>
       <c r="F2388" t="s">
-        <v>4454</v>
+        <v>1998</v>
       </c>
       <c r="G2388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2388" t="s">
         <v>4</v>
@@ -83789,7 +83813,7 @@
         <v>4460</v>
       </c>
       <c r="G2391" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2391" t="s">
         <v>4</v>
@@ -83818,7 +83842,7 @@
         <v>4462</v>
       </c>
       <c r="G2392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2392" t="s">
         <v>4</v>
@@ -83841,10 +83865,10 @@
         <v>2392</v>
       </c>
       <c r="E2393" t="s">
-        <v>4247</v>
+        <v>4463</v>
       </c>
       <c r="F2393" t="s">
-        <v>4248</v>
+        <v>4464</v>
       </c>
       <c r="G2393" t="n">
         <v>2</v>
@@ -83870,13 +83894,13 @@
         <v>2393</v>
       </c>
       <c r="E2394" t="s">
-        <v>4463</v>
+        <v>4465</v>
       </c>
       <c r="F2394" t="s">
-        <v>4464</v>
+        <v>4466</v>
       </c>
       <c r="G2394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2394" t="s">
         <v>4</v>
@@ -83899,13 +83923,13 @@
         <v>2394</v>
       </c>
       <c r="E2395" t="s">
-        <v>4465</v>
+        <v>4467</v>
       </c>
       <c r="F2395" t="s">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="G2395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2395" t="s">
         <v>4</v>
@@ -83928,10 +83952,10 @@
         <v>2395</v>
       </c>
       <c r="E2396" t="s">
-        <v>4467</v>
+        <v>4469</v>
       </c>
       <c r="F2396" t="s">
-        <v>4468</v>
+        <v>4470</v>
       </c>
       <c r="G2396" t="n">
         <v>1</v>
@@ -83957,10 +83981,10 @@
         <v>2396</v>
       </c>
       <c r="E2397" t="s">
-        <v>4469</v>
+        <v>4471</v>
       </c>
       <c r="F2397" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
       <c r="G2397" t="n">
         <v>2</v>
@@ -83986,10 +84010,10 @@
         <v>2397</v>
       </c>
       <c r="E2398" t="s">
-        <v>4471</v>
+        <v>4257</v>
       </c>
       <c r="F2398" t="s">
-        <v>4472</v>
+        <v>4258</v>
       </c>
       <c r="G2398" t="n">
         <v>2</v>
@@ -84021,7 +84045,7 @@
         <v>4474</v>
       </c>
       <c r="G2399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2399" t="s">
         <v>4</v>
@@ -84050,7 +84074,7 @@
         <v>4476</v>
       </c>
       <c r="G2400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2400" t="s">
         <v>4</v>
@@ -84079,7 +84103,7 @@
         <v>4478</v>
       </c>
       <c r="G2401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2401" t="s">
         <v>4</v>
@@ -84108,7 +84132,7 @@
         <v>4480</v>
       </c>
       <c r="G2402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2402" t="s">
         <v>4</v>
@@ -84137,7 +84161,7 @@
         <v>4482</v>
       </c>
       <c r="G2403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2403" t="s">
         <v>4</v>
@@ -84166,7 +84190,7 @@
         <v>4484</v>
       </c>
       <c r="G2404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2404" t="s">
         <v>4</v>
@@ -84224,7 +84248,7 @@
         <v>4488</v>
       </c>
       <c r="G2406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2406" t="s">
         <v>4</v>
@@ -84427,7 +84451,7 @@
         <v>4502</v>
       </c>
       <c r="G2413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2413" t="s">
         <v>4</v>
@@ -84572,7 +84596,7 @@
         <v>4512</v>
       </c>
       <c r="G2418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2418" t="s">
         <v>4</v>
@@ -84630,7 +84654,7 @@
         <v>4516</v>
       </c>
       <c r="G2420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2420" t="s">
         <v>4</v>
@@ -84775,7 +84799,7 @@
         <v>4526</v>
       </c>
       <c r="G2425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2425" t="s">
         <v>4</v>
@@ -84862,7 +84886,7 @@
         <v>4532</v>
       </c>
       <c r="G2428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2428" t="s">
         <v>4</v>
@@ -84943,10 +84967,10 @@
         <v>2430</v>
       </c>
       <c r="E2431" t="s">
-        <v>3995</v>
+        <v>4537</v>
       </c>
       <c r="F2431" t="s">
-        <v>3996</v>
+        <v>4538</v>
       </c>
       <c r="G2431" t="n">
         <v>1</v>
@@ -84972,10 +84996,10 @@
         <v>2431</v>
       </c>
       <c r="E2432" t="s">
-        <v>4537</v>
+        <v>4539</v>
       </c>
       <c r="F2432" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
       <c r="G2432" t="n">
         <v>1</v>
@@ -85001,13 +85025,13 @@
         <v>2432</v>
       </c>
       <c r="E2433" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
       <c r="F2433" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
       <c r="G2433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2433" t="s">
         <v>4</v>
@@ -85030,10 +85054,10 @@
         <v>2433</v>
       </c>
       <c r="E2434" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
       <c r="F2434" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
       <c r="G2434" t="n">
         <v>1</v>
@@ -85059,10 +85083,10 @@
         <v>2434</v>
       </c>
       <c r="E2435" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="F2435" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G2435" t="n">
         <v>1</v>
@@ -85088,10 +85112,10 @@
         <v>2435</v>
       </c>
       <c r="E2436" t="s">
-        <v>4545</v>
+        <v>4001</v>
       </c>
       <c r="F2436" t="s">
-        <v>4546</v>
+        <v>4002</v>
       </c>
       <c r="G2436" t="n">
         <v>1</v>
@@ -85123,7 +85147,7 @@
         <v>4548</v>
       </c>
       <c r="G2437" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2437" t="s">
         <v>4</v>
@@ -85210,7 +85234,7 @@
         <v>4554</v>
       </c>
       <c r="G2440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2440" t="s">
         <v>4</v>
@@ -85239,7 +85263,7 @@
         <v>4556</v>
       </c>
       <c r="G2441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2441" t="s">
         <v>4</v>
@@ -85268,7 +85292,7 @@
         <v>4558</v>
       </c>
       <c r="G2442" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2442" t="s">
         <v>4</v>
@@ -85355,7 +85379,7 @@
         <v>4564</v>
       </c>
       <c r="G2445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2445" t="s">
         <v>4</v>
@@ -85378,10 +85402,10 @@
         <v>2445</v>
       </c>
       <c r="E2446" t="s">
-        <v>4267</v>
+        <v>4565</v>
       </c>
       <c r="F2446" t="s">
-        <v>4268</v>
+        <v>4566</v>
       </c>
       <c r="G2446" t="n">
         <v>2</v>
@@ -85407,10 +85431,10 @@
         <v>2446</v>
       </c>
       <c r="E2447" t="s">
-        <v>4565</v>
+        <v>4567</v>
       </c>
       <c r="F2447" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
       <c r="G2447" t="n">
         <v>1</v>
@@ -85436,10 +85460,10 @@
         <v>2447</v>
       </c>
       <c r="E2448" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
       <c r="F2448" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
       <c r="G2448" t="n">
         <v>1</v>
@@ -85465,10 +85489,10 @@
         <v>2448</v>
       </c>
       <c r="E2449" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
       <c r="F2449" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
       <c r="G2449" t="n">
         <v>1</v>
@@ -85494,10 +85518,10 @@
         <v>2449</v>
       </c>
       <c r="E2450" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
       <c r="F2450" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
       <c r="G2450" t="n">
         <v>1</v>
@@ -85523,13 +85547,13 @@
         <v>2450</v>
       </c>
       <c r="E2451" t="s">
-        <v>4573</v>
+        <v>4277</v>
       </c>
       <c r="F2451" t="s">
-        <v>4574</v>
+        <v>4278</v>
       </c>
       <c r="G2451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2451" t="s">
         <v>4</v>
@@ -85906,7 +85930,7 @@
         <v>4600</v>
       </c>
       <c r="G2464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2464" t="s">
         <v>4</v>
@@ -86051,7 +86075,7 @@
         <v>4610</v>
       </c>
       <c r="G2469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2469" t="s">
         <v>4</v>
@@ -86370,7 +86394,7 @@
         <v>4632</v>
       </c>
       <c r="G2480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2480" t="s">
         <v>4</v>
@@ -86515,7 +86539,7 @@
         <v>4642</v>
       </c>
       <c r="G2485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2485" t="s">
         <v>4</v>
@@ -86660,7 +86684,7 @@
         <v>4652</v>
       </c>
       <c r="G2490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2490" t="s">
         <v>4</v>
@@ -86689,7 +86713,7 @@
         <v>4654</v>
       </c>
       <c r="G2491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2491" t="s">
         <v>4</v>
@@ -86718,7 +86742,7 @@
         <v>4656</v>
       </c>
       <c r="G2492" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H2492" t="s">
         <v>4</v>
@@ -86747,7 +86771,7 @@
         <v>4658</v>
       </c>
       <c r="G2493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2493" t="s">
         <v>4</v>
@@ -86776,7 +86800,7 @@
         <v>4660</v>
       </c>
       <c r="G2494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2494" t="s">
         <v>4</v>
@@ -86805,7 +86829,7 @@
         <v>4662</v>
       </c>
       <c r="G2495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2495" t="s">
         <v>4</v>
@@ -86834,7 +86858,7 @@
         <v>4664</v>
       </c>
       <c r="G2496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2496" t="s">
         <v>4</v>
@@ -86863,7 +86887,7 @@
         <v>4666</v>
       </c>
       <c r="G2497" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2497" t="s">
         <v>4</v>
@@ -86892,7 +86916,7 @@
         <v>4668</v>
       </c>
       <c r="G2498" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2498" t="s">
         <v>4</v>
@@ -86979,7 +87003,7 @@
         <v>4674</v>
       </c>
       <c r="G2501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2501" t="s">
         <v>4</v>
@@ -87031,10 +87055,10 @@
         <v>2502</v>
       </c>
       <c r="E2503" t="s">
-        <v>4669</v>
+        <v>4677</v>
       </c>
       <c r="F2503" t="s">
-        <v>4670</v>
+        <v>4678</v>
       </c>
       <c r="G2503" t="n">
         <v>1</v>
@@ -87060,10 +87084,10 @@
         <v>2503</v>
       </c>
       <c r="E2504" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
       <c r="F2504" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
       <c r="G2504" t="n">
         <v>1</v>
@@ -87089,13 +87113,13 @@
         <v>2504</v>
       </c>
       <c r="E2505" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
       <c r="F2505" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="G2505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2505" t="s">
         <v>4</v>
@@ -87118,10 +87142,10 @@
         <v>2505</v>
       </c>
       <c r="E2506" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
       <c r="F2506" t="s">
-        <v>4682</v>
+        <v>4684</v>
       </c>
       <c r="G2506" t="n">
         <v>1</v>
@@ -87147,10 +87171,10 @@
         <v>2506</v>
       </c>
       <c r="E2507" t="s">
-        <v>4683</v>
+        <v>4677</v>
       </c>
       <c r="F2507" t="s">
-        <v>4684</v>
+        <v>4678</v>
       </c>
       <c r="G2507" t="n">
         <v>1</v>
@@ -87211,7 +87235,7 @@
         <v>4688</v>
       </c>
       <c r="G2509" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2509" t="s">
         <v>4</v>
@@ -87333,6 +87357,122 @@
         <v>4</v>
       </c>
       <c r="I2513" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9">
+      <c r="A2514" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2514" t="n">
+        <v>2513</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>4697</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>4698</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9">
+      <c r="A2515" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2515" t="n">
+        <v>2514</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>4699</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>4700</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9">
+      <c r="A2516" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2516" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>4702</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9">
+      <c r="A2517" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2517" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>4704</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2517" t="n">
         <v>3</v>
       </c>
     </row>
